--- a/documentazione_storico_versione11.1.xlsx
+++ b/documentazione_storico_versione11.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5A1958-305C-4082-ABE9-7A46A98D7A9A}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A339660A-29E5-4AF0-B4E9-F75BC27B9C11}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23040" windowHeight="12660" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="312" yWindow="372" windowWidth="23040" windowHeight="12660" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principali novità" sheetId="2" r:id="rId1"/>
@@ -4923,6 +4923,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -28686,9 +28690,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28698,7 +28702,7 @@
     <col min="3" max="3" width="36.6640625" style="38" customWidth="1"/>
     <col min="4" max="4" width="66.5546875" style="68" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="71" style="28" customWidth="1"/>
     <col min="7" max="7" width="14" style="28" customWidth="1"/>
     <col min="8" max="24" width="8.6640625" style="40" customWidth="1"/>
     <col min="25" max="25" width="9.109375" style="28"/>
@@ -31818,7 +31822,7 @@
       <c r="X80" s="5"/>
       <c r="Y80"/>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81" s="28" t="s">
         <v>104</v>
@@ -32089,7 +32093,7 @@
       <c r="X87" s="5"/>
       <c r="Y87"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88" s="28" t="s">
         <v>111</v>
@@ -35343,7 +35347,7 @@
       <c r="X234" s="5"/>
       <c r="Y234"/>
     </row>
-    <row r="235" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235"/>
       <c r="B235" t="s">
         <v>712</v>
@@ -38798,7 +38802,8 @@
   <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="SESSO"/>
+        <filter val="PAR"/>
+        <filter val="PARTIME"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -44538,12 +44543,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44695,15 +44697,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EB524F-E0B3-40C0-AF3E-75CDFAF009E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44727,17 +44740,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EB524F-E0B3-40C0-AF3E-75CDFAF009E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentazione_storico_versione11.1.xlsx
+++ b/documentazione_storico_versione11.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A339660A-29E5-4AF0-B4E9-F75BC27B9C11}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6759C5C2-7C8D-4360-9B65-3CD3F9809DA1}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="372" windowWidth="23040" windowHeight="12660" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11775" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principali novità" sheetId="2" r:id="rId1"/>
@@ -5194,28 +5194,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
@@ -5234,16 +5234,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
     <col min="4" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -6152,17 +6152,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="5" customWidth="1"/>
     <col min="5" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>521</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
         <v>1</v>
@@ -6430,7 +6430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
@@ -6492,7 +6492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>72</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>73</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="18" t="s">
         <v>75</v>
@@ -6825,7 +6825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>76</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>77</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>452</v>
       </c>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="AC11" s="67"/>
     </row>
-    <row r="12" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>452</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="AB12" s="57"/>
       <c r="AC12" s="67"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>80</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>81</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="18" t="s">
         <v>82</v>
@@ -7248,7 +7248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>83</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>84</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>85</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="18" t="s">
         <v>86</v>
@@ -7460,7 +7460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>87</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
         <v>88</v>
@@ -7598,16 +7598,16 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>521</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -7958,7 +7958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -8075,7 +8075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>452</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>94</v>
@@ -8615,7 +8615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>97</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>103</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>104</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>105</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>452</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>107</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>108</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>452</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>110</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>111</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>112</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>114</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>115</v>
@@ -10155,7 +10155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>116</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>117</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>118</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>119</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>120</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>121</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="56" t="s">
         <v>1054</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="56" t="s">
         <v>122</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="56" t="s">
         <v>507</v>
       </c>
@@ -10682,7 +10682,7 @@
       <c r="AA43" s="57"/>
       <c r="AB43" s="57"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="s">
         <v>123</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" s="56" t="s">
         <v>124</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="56" t="s">
         <v>473</v>
       </c>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="AB46" s="57"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="63" t="s">
         <v>1055</v>
@@ -10956,20 +10956,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="22" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="5" style="57" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="56" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.109375" style="56"/>
-    <col min="32" max="34" width="9.109375"/>
+    <col min="30" max="31" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>521</v>
       </c>
@@ -11073,7 +11072,7 @@
       <c r="AD1" s="79"/>
       <c r="AE1" s="79"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
       <c r="B3" s="63" t="s">
         <v>1</v>
@@ -11240,7 +11239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>452</v>
       </c>
@@ -11291,7 +11290,7 @@
       </c>
       <c r="AD4" s="80"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>452</v>
       </c>
@@ -11342,7 +11341,7 @@
       </c>
       <c r="AD5" s="80"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="56" t="s">
         <v>141</v>
       </c>
@@ -11396,7 +11395,7 @@
       </c>
       <c r="AD6" s="80"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="56" t="s">
         <v>126</v>
       </c>
@@ -11450,7 +11449,7 @@
       </c>
       <c r="AD7" s="80"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="56" t="s">
         <v>164</v>
       </c>
@@ -11504,7 +11503,7 @@
       </c>
       <c r="AD8" s="80"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="56" t="s">
         <v>142</v>
       </c>
@@ -11558,7 +11557,7 @@
       </c>
       <c r="AD9" s="80"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="56" t="s">
         <v>143</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="56" t="s">
         <v>144</v>
       </c>
@@ -11628,7 +11627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
         <v>145</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>452</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>452</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="56" t="s">
         <v>148</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="56" t="s">
         <v>149</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>452</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>452</v>
       </c>
@@ -11993,7 +11992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
         <v>152</v>
@@ -12058,7 +12057,7 @@
       <c r="AD19" s="56"/>
       <c r="AE19" s="56"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>452</v>
       </c>
@@ -12108,7 +12107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>452</v>
       </c>
@@ -12158,7 +12157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>452</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="56" t="s">
         <v>153</v>
@@ -12267,7 +12266,7 @@
       <c r="AD23" s="56"/>
       <c r="AE23" s="56"/>
     </row>
-    <row r="24" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="56" t="s">
         <v>157</v>
@@ -12332,7 +12331,7 @@
       <c r="AD24" s="56"/>
       <c r="AE24" s="56"/>
     </row>
-    <row r="25" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="56" t="s">
         <v>1064</v>
@@ -12371,7 +12370,7 @@
       <c r="AD25" s="56"/>
       <c r="AE25" s="56"/>
     </row>
-    <row r="26" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>452</v>
       </c>
@@ -12436,7 +12435,7 @@
       <c r="AD26" s="56"/>
       <c r="AE26" s="56"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B27" s="56" t="s">
         <v>159</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" s="56" t="s">
         <v>160</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="56" t="s">
         <v>161</v>
       </c>
@@ -12547,7 +12546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="56" t="s">
         <v>127</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="56" t="s">
         <v>128</v>
@@ -12679,7 +12678,7 @@
       <c r="AD31" s="56"/>
       <c r="AE31" s="56"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="56" t="s">
         <v>129</v>
       </c>
@@ -12732,7 +12731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="56" t="s">
         <v>130</v>
@@ -12791,7 +12790,7 @@
       <c r="AD33" s="56"/>
       <c r="AE33" s="56"/>
     </row>
-    <row r="34" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="56" t="s">
         <v>163</v>
@@ -12864,7 +12863,7 @@
       <c r="AD34" s="56"/>
       <c r="AE34" s="56"/>
     </row>
-    <row r="35" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
       <c r="B35" s="56" t="s">
         <v>1066</v>
@@ -12903,7 +12902,7 @@
       <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B36" s="56" t="s">
         <v>131</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B37" s="56" t="s">
         <v>132</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="56" t="s">
         <v>134</v>
@@ -13087,7 +13086,7 @@
       <c r="AD38" s="56"/>
       <c r="AE38" s="56"/>
     </row>
-    <row r="39" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="56" t="s">
         <v>135</v>
@@ -13150,7 +13149,7 @@
       <c r="AD39" s="56"/>
       <c r="AE39" s="56"/>
     </row>
-    <row r="40" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="56" t="s">
         <v>133</v>
@@ -13223,7 +13222,7 @@
       <c r="AD40" s="56"/>
       <c r="AE40" s="56"/>
     </row>
-    <row r="41" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="56" t="s">
         <v>1068</v>
@@ -13262,7 +13261,7 @@
       <c r="AD41" s="56"/>
       <c r="AE41" s="56"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B42" s="56" t="s">
         <v>162</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B43" s="56" t="s">
         <v>136</v>
       </c>
@@ -13365,7 +13364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="s">
         <v>137</v>
       </c>
@@ -13409,7 +13408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B45" s="56" t="s">
         <v>138</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B46" s="56" t="s">
         <v>125</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63" t="s">
         <v>166</v>
@@ -13525,7 +13524,7 @@
       <c r="AA47" s="60"/>
       <c r="AB47" s="60"/>
     </row>
-    <row r="48" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>452</v>
       </c>
@@ -13590,7 +13589,7 @@
       <c r="AD48" s="56"/>
       <c r="AE48" s="56"/>
     </row>
-    <row r="49" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>452</v>
       </c>
@@ -13655,7 +13654,7 @@
       <c r="AD49" s="56"/>
       <c r="AE49" s="56"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B50" s="56" t="s">
         <v>170</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="56" t="s">
         <v>171</v>
@@ -13746,7 +13745,7 @@
       <c r="AD51" s="56"/>
       <c r="AE51" s="56"/>
     </row>
-    <row r="52" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="56" t="s">
         <v>180</v>
@@ -13805,7 +13804,7 @@
       <c r="AD52" s="56"/>
       <c r="AE52" s="56"/>
     </row>
-    <row r="53" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="56" t="s">
         <v>173</v>
@@ -13870,7 +13869,7 @@
       <c r="AD53" s="56"/>
       <c r="AE53" s="56"/>
     </row>
-    <row r="54" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="56" t="s">
         <v>1061</v>
@@ -13909,7 +13908,7 @@
       <c r="AD54" s="56"/>
       <c r="AE54" s="56"/>
     </row>
-    <row r="55" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>452</v>
       </c>
@@ -13968,7 +13967,7 @@
       <c r="AD55" s="56"/>
       <c r="AE55" s="56"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B56" s="56" t="s">
         <v>191</v>
       </c>
@@ -14018,7 +14017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B57" s="56" t="s">
         <v>172</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
         <v>452</v>
       </c>
@@ -14109,7 +14108,7 @@
       <c r="AD58" s="56"/>
       <c r="AE58" s="56"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B59" s="56" t="s">
         <v>192</v>
       </c>
@@ -14165,7 +14164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
       <c r="B60" s="56" t="s">
         <v>193</v>
@@ -14232,7 +14231,7 @@
       <c r="AD60" s="56"/>
       <c r="AE60" s="56"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B61" s="56" t="s">
         <v>174</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="56" t="s">
         <v>181</v>
@@ -14344,7 +14343,7 @@
       <c r="AD62" s="56"/>
       <c r="AE62" s="56"/>
     </row>
-    <row r="63" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
       <c r="B63" s="56" t="s">
         <v>211</v>
@@ -14411,7 +14410,7 @@
       <c r="AD63" s="56"/>
       <c r="AE63" s="56"/>
     </row>
-    <row r="64" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
       <c r="B64" s="56" t="s">
         <v>1057</v>
@@ -14450,7 +14449,7 @@
       <c r="AD64" s="56"/>
       <c r="AE64" s="56"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B65" s="56" t="s">
         <v>194</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B66" s="56" t="s">
         <v>195</v>
       </c>
@@ -14562,7 +14561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
       <c r="B67" s="56" t="s">
         <v>196</v>
@@ -14629,7 +14628,7 @@
       <c r="AD67" s="56"/>
       <c r="AE67" s="56"/>
     </row>
-    <row r="68" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="56" t="s">
         <v>182</v>
@@ -14692,7 +14691,7 @@
       <c r="AD68" s="56"/>
       <c r="AE68" s="56"/>
     </row>
-    <row r="69" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
       <c r="B69" s="56" t="s">
         <v>183</v>
@@ -14755,7 +14754,7 @@
       <c r="AD69" s="56"/>
       <c r="AE69" s="56"/>
     </row>
-    <row r="70" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
       <c r="B70" s="56" t="s">
         <v>1060</v>
@@ -14794,7 +14793,7 @@
       <c r="AD70" s="56"/>
       <c r="AE70" s="56"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B71" s="56" t="s">
         <v>175</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B72" s="56" t="s">
         <v>184</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B73" s="56" t="s">
         <v>185</v>
       </c>
@@ -14941,7 +14940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B74" s="56" t="s">
         <v>186</v>
       </c>
@@ -14961,7 +14960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="63" t="s">
         <v>187</v>
@@ -15019,7 +15018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B76" s="56" t="s">
         <v>212</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B77" s="56" t="s">
         <v>176</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B78" s="56" t="s">
         <v>177</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
       <c r="B79" s="63" t="s">
         <v>213</v>
@@ -15242,7 +15241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B80" s="56" t="s">
         <v>197</v>
       </c>
@@ -15325,7 +15324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B81" s="56" t="s">
         <v>198</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="56" t="s">
         <v>199</v>
@@ -15493,7 +15492,7 @@
       <c r="AD82" s="56"/>
       <c r="AE82" s="56"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B83" s="56" t="s">
         <v>178</v>
       </c>
@@ -15546,7 +15545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="56" t="s">
         <v>179</v>
       </c>
@@ -15609,7 +15608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B85" s="56" t="s">
         <v>188</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B86" s="56" t="s">
         <v>200</v>
       </c>
@@ -15736,7 +15735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B87" s="56" t="s">
         <v>201</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B88" s="56" t="s">
         <v>189</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="63"/>
       <c r="B89" s="63" t="s">
         <v>202</v>
@@ -15941,7 +15940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B90" s="56" t="s">
         <v>203</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B91" s="56" t="s">
         <v>204</v>
       </c>
@@ -16107,7 +16106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="63"/>
       <c r="B92" s="63" t="s">
         <v>205</v>
@@ -16191,7 +16190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B93" s="56" t="s">
         <v>206</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B94" s="56" t="s">
         <v>207</v>
       </c>
@@ -16303,7 +16302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B95" s="56" t="s">
         <v>208</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="63"/>
       <c r="B96" s="63" t="s">
         <v>209</v>
@@ -16433,7 +16432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B97" s="56" t="s">
         <v>210</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B98" s="56" t="s">
         <v>214</v>
       </c>
@@ -16557,7 +16556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B99" s="56" t="s">
         <v>165</v>
       </c>
@@ -16613,7 +16612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B100" s="56" t="s">
         <v>232</v>
       </c>
@@ -16669,7 +16668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B101" s="56" t="s">
         <v>233</v>
       </c>
@@ -16725,7 +16724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B102" s="56" t="s">
         <v>215</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B103" s="56" t="s">
         <v>216</v>
       </c>
@@ -16804,7 +16803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B104" s="56" t="s">
         <v>234</v>
       </c>
@@ -16854,7 +16853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B105" s="56" t="s">
         <v>235</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B106" s="56" t="s">
         <v>236</v>
       </c>
@@ -16966,7 +16965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B107" s="56" t="s">
         <v>218</v>
       </c>
@@ -17001,7 +17000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B108" s="56" t="s">
         <v>219</v>
       </c>
@@ -17051,7 +17050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="63"/>
       <c r="B109" s="63" t="s">
         <v>238</v>
@@ -17097,7 +17096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B110" s="56" t="s">
         <v>239</v>
       </c>
@@ -17123,7 +17122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="63"/>
       <c r="B111" s="63" t="s">
         <v>240</v>
@@ -17169,7 +17168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B112" s="56" t="s">
         <v>220</v>
       </c>
@@ -17222,7 +17221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B113" s="56" t="s">
         <v>217</v>
       </c>
@@ -17263,7 +17262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="63"/>
       <c r="B114" s="63" t="s">
         <v>237</v>
@@ -17325,7 +17324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B115" s="56" t="s">
         <v>221</v>
       </c>
@@ -17372,7 +17371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B116" s="56" t="s">
         <v>222</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B117" s="56" t="s">
         <v>241</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B118" s="56" t="s">
         <v>223</v>
       </c>
@@ -17531,7 +17530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B119" s="56" t="s">
         <v>224</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B120" s="56" t="s">
         <v>225</v>
       </c>
@@ -17595,7 +17594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B121" s="56" t="s">
         <v>226</v>
       </c>
@@ -17618,7 +17617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B122" s="56" t="s">
         <v>227</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B123" s="56" t="s">
         <v>228</v>
       </c>
@@ -17664,7 +17663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B124" s="56" t="s">
         <v>229</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="69"/>
       <c r="B125" s="69" t="s">
         <v>242</v>
@@ -17730,7 +17729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B126" s="56" t="s">
         <v>243</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B127" s="56" t="s">
         <v>244</v>
       </c>
@@ -17779,7 +17778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B128" s="56" t="s">
         <v>230</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="63"/>
       <c r="B129" s="63" t="s">
         <v>231</v>
@@ -17896,7 +17895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B130" s="56" t="s">
         <v>245</v>
       </c>
@@ -17979,7 +17978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B131" s="56" t="s">
         <v>691</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B132" s="56" t="s">
         <v>694</v>
       </c>
@@ -18058,7 +18057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B133" s="56" t="s">
         <v>693</v>
       </c>
@@ -18105,7 +18104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B134" s="56" t="s">
         <v>692</v>
       </c>
@@ -18143,7 +18142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="63"/>
       <c r="B135" s="63" t="s">
         <v>690</v>
@@ -18210,15 +18209,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -18316,7 +18315,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -18565,7 +18564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -18731,7 +18730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>712</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -18873,7 +18872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -18920,7 +18919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -18946,7 +18945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -19058,7 +19057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>251</v>
       </c>
@@ -19277,14 +19276,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -19382,7 +19381,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -19465,7 +19464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -19548,7 +19547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -19631,7 +19630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -19714,7 +19713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -19791,7 +19790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -19868,7 +19867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -19921,7 +19920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>253</v>
       </c>
@@ -19988,7 +19987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -20026,7 +20025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>726</v>
       </c>
@@ -20037,7 +20036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -20087,7 +20086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -20104,7 +20103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -20166,7 +20165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>260</v>
       </c>
@@ -20215,7 +20214,7 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -20247,7 +20246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -20330,7 +20329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -20368,7 +20367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -20436,7 +20435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -20489,7 +20488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>263</v>
       </c>
@@ -20542,7 +20541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -20625,7 +20624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>252</v>
       </c>
@@ -20708,37 +20707,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="25"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="25"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" s="25"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="25"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="25"/>
     </row>
   </sheetData>
@@ -20752,15 +20751,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -20858,7 +20857,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -20941,7 +20940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -21024,7 +21023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -21107,7 +21106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21157,7 +21156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -21207,7 +21206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -21257,7 +21256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -21307,7 +21306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -21357,7 +21356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -21401,7 +21400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -21454,7 +21453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -21537,7 +21536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -21618,7 +21617,7 @@
       </c>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -21699,7 +21698,7 @@
       </c>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>56</v>
       </c>
@@ -21746,15 +21745,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -21913,7 +21912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -21974,7 +21973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -22024,7 +22023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>1069</v>
       </c>
@@ -22059,7 +22058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -22109,7 +22108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -22159,7 +22158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -22209,7 +22208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>272</v>
       </c>
@@ -22270,7 +22269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>253</v>
       </c>
@@ -22320,7 +22319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22347,7 +22346,7 @@
       </c>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -22379,7 +22378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -22406,7 +22405,7 @@
       </c>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>273</v>
       </c>
@@ -22467,7 +22466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -22503,7 +22502,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -22539,7 +22538,7 @@
       </c>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -22589,7 +22588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>276</v>
       </c>
@@ -22639,7 +22638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>277</v>
       </c>
@@ -22689,7 +22688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>252</v>
       </c>
@@ -22761,15 +22760,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -22867,7 +22866,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -22950,7 +22949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -23033,7 +23032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -23116,7 +23115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -23197,7 +23196,7 @@
       </c>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>1071</v>
       </c>
@@ -23232,7 +23231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -23291,7 +23290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -23374,7 +23373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -23540,7 +23539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>283</v>
       </c>
@@ -23612,14 +23611,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -23717,7 +23716,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -23800,7 +23799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -23883,7 +23882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -23966,7 +23965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -24049,7 +24048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -24082,7 +24081,7 @@
       </c>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -24165,7 +24164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -24242,7 +24241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -24283,7 +24282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -24342,7 +24341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>1072</v>
       </c>
@@ -24377,7 +24376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>1073</v>
       </c>
@@ -24423,9 +24422,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="82" t="s">
         <v>883</v>
       </c>
@@ -24454,15 +24453,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -24545,7 +24544,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -24628,7 +24627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -24711,7 +24710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -24794,7 +24793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -24877,7 +24876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -24960,7 +24959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -25043,7 +25042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -25126,7 +25125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>791</v>
       </c>
@@ -25185,7 +25184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>792</v>
       </c>
@@ -25244,7 +25243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>793</v>
       </c>
@@ -25303,7 +25302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>794</v>
       </c>
@@ -25344,7 +25343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>795</v>
       </c>
@@ -25385,7 +25384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -25406,7 +25405,7 @@
       </c>
       <c r="AA14" s="57"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -25450,7 +25449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -25491,7 +25490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>299</v>
       </c>
@@ -25533,7 +25532,7 @@
       </c>
       <c r="AA17" s="57"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>300</v>
       </c>
@@ -25547,7 +25546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -25606,7 +25605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>314</v>
       </c>
@@ -25653,7 +25652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -25686,7 +25685,7 @@
       </c>
       <c r="AA21" s="57"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -25745,7 +25744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -25828,7 +25827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>304</v>
       </c>
@@ -25885,7 +25884,7 @@
       </c>
       <c r="AA24" s="57"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>305</v>
       </c>
@@ -25968,7 +25967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>306</v>
       </c>
@@ -26051,7 +26050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>307</v>
       </c>
@@ -26134,7 +26133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>308</v>
       </c>
@@ -26190,7 +26189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -26273,7 +26272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>290</v>
       </c>
@@ -26350,14 +26349,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -26440,7 +26439,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -26475,7 +26474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -26510,7 +26509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1039</v>
       </c>
@@ -26521,7 +26520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1041</v>
       </c>
@@ -26532,7 +26531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1046</v>
       </c>
@@ -26543,7 +26542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1040</v>
       </c>
@@ -26554,7 +26553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -26565,7 +26564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>791</v>
       </c>
@@ -26576,7 +26575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>792</v>
       </c>
@@ -26587,7 +26586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>793</v>
       </c>
@@ -26598,7 +26597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>794</v>
       </c>
@@ -26644,15 +26643,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -26735,7 +26734,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -26818,7 +26817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -26901,7 +26900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -26984,7 +26983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -27067,7 +27066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -27126,7 +27125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -27147,7 +27146,7 @@
       </c>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -27191,7 +27190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -27232,7 +27231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -27274,7 +27273,7 @@
       </c>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>300</v>
       </c>
@@ -27288,7 +27287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -27365,7 +27364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -27448,7 +27447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>310</v>
       </c>
@@ -27531,7 +27530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -27614,7 +27613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>312</v>
       </c>
@@ -27650,7 +27649,7 @@
       </c>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>313</v>
       </c>
@@ -27689,7 +27688,7 @@
       </c>
       <c r="AA17" s="57"/>
     </row>
-    <row r="18" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>1076</v>
       </c>
@@ -27724,7 +27723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>314</v>
       </c>
@@ -27783,7 +27782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>315</v>
       </c>
@@ -27832,7 +27831,7 @@
       <c r="Z20" s="57"/>
       <c r="AA20" s="57"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>316</v>
       </c>
@@ -27915,7 +27914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>317</v>
       </c>
@@ -27998,7 +27997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>318</v>
       </c>
@@ -28055,7 +28054,7 @@
       </c>
       <c r="AA23" s="57"/>
     </row>
-    <row r="24" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>1077</v>
       </c>
@@ -28090,7 +28089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>319</v>
       </c>
@@ -28184,17 +28183,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -28214,7 +28213,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
@@ -28234,7 +28233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -28254,7 +28253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>371</v>
       </c>
@@ -28274,7 +28273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>370</v>
       </c>
@@ -28294,7 +28293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>372</v>
       </c>
@@ -28334,7 +28333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -28354,7 +28353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>531</v>
       </c>
@@ -28374,7 +28373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>373</v>
       </c>
@@ -28394,7 +28393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>377</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
@@ -28434,7 +28433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>40</v>
       </c>
@@ -28454,7 +28453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>374</v>
       </c>
@@ -28474,7 +28473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>378</v>
       </c>
@@ -28494,7 +28493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>375</v>
       </c>
@@ -28514,7 +28513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>1044</v>
       </c>
@@ -28534,7 +28533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>376</v>
       </c>
@@ -28554,111 +28553,111 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
       <c r="B23" s="21" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="21" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
     </row>
   </sheetData>
@@ -28687,28 +28686,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="66.5546875" style="68" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="40" customWidth="1"/>
     <col min="6" max="6" width="71" style="28" customWidth="1"/>
     <col min="7" max="7" width="14" style="28" customWidth="1"/>
-    <col min="8" max="24" width="8.6640625" style="40" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="28"/>
+    <col min="8" max="24" width="8.7109375" style="40" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>451</v>
       </c>
@@ -28783,7 +28781,7 @@
       </c>
       <c r="Y1" s="42"/>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -28845,7 +28843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
@@ -28907,7 +28905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -28955,7 +28953,7 @@
       <c r="X4" s="5"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="195" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -28992,7 +28990,7 @@
       <c r="X5" s="5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -29029,7 +29027,7 @@
       <c r="X6" s="5"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -29066,7 +29064,7 @@
       <c r="X7" s="5"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -29103,7 +29101,7 @@
       <c r="X8" s="5"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="1:25" s="37" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
@@ -29143,7 +29141,7 @@
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
     </row>
-    <row r="10" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
@@ -29185,7 +29183,7 @@
       <c r="X10" s="5"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>22</v>
@@ -29224,7 +29222,7 @@
       <c r="X11" s="5"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>23</v>
@@ -29261,7 +29259,7 @@
       <c r="X12" s="5"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -29300,7 +29298,7 @@
       <c r="X13" s="5"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -29337,7 +29335,7 @@
       <c r="X14" s="5"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>26</v>
@@ -29374,7 +29372,7 @@
       <c r="X15" s="5"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>27</v>
@@ -29413,7 +29411,7 @@
       <c r="X16" s="5"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>28</v>
@@ -29452,7 +29450,7 @@
       <c r="X17" s="5"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" s="37" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>32</v>
       </c>
@@ -29490,7 +29488,7 @@
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
     </row>
-    <row r="19" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>33</v>
       </c>
@@ -29527,7 +29525,7 @@
       <c r="X19" s="5"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>34</v>
       </c>
@@ -29564,7 +29562,7 @@
       <c r="X20" s="5"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>51</v>
       </c>
@@ -29604,7 +29602,7 @@
       <c r="X21" s="5"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>52</v>
       </c>
@@ -29644,7 +29642,7 @@
       <c r="X22" s="5"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
         <v>53</v>
       </c>
@@ -29681,7 +29679,7 @@
       <c r="X23" s="5"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
         <v>54</v>
       </c>
@@ -29718,7 +29716,7 @@
       <c r="X24" s="5"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
         <v>55</v>
       </c>
@@ -29755,7 +29753,7 @@
       <c r="X25" s="5"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>56</v>
       </c>
@@ -29795,7 +29793,7 @@
       <c r="X26" s="5"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>57</v>
       </c>
@@ -29832,7 +29830,7 @@
       <c r="X27" s="5"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
         <v>58</v>
       </c>
@@ -29869,7 +29867,7 @@
       <c r="X28" s="5"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>59</v>
       </c>
@@ -29906,7 +29904,7 @@
       <c r="X29" s="5"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>60</v>
       </c>
@@ -29946,7 +29944,7 @@
       <c r="X30" s="5"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="28" t="s">
         <v>61</v>
       </c>
@@ -29986,7 +29984,7 @@
       <c r="X31" s="5"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
         <v>62</v>
       </c>
@@ -30023,7 +30021,7 @@
       <c r="X32" s="5"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
         <v>63</v>
       </c>
@@ -30060,7 +30058,7 @@
       <c r="X33" s="5"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="28" t="s">
         <v>64</v>
       </c>
@@ -30100,7 +30098,7 @@
       <c r="X34" s="5"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="2:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
         <v>65</v>
       </c>
@@ -30137,7 +30135,7 @@
       <c r="X35" s="5"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="2:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
         <v>66</v>
       </c>
@@ -30174,7 +30172,7 @@
       <c r="X36" s="5"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="2:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>67</v>
       </c>
@@ -30211,7 +30209,7 @@
       <c r="X37" s="5"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>70</v>
       </c>
@@ -30248,7 +30246,7 @@
       <c r="X38" s="5"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
         <v>68</v>
       </c>
@@ -30285,7 +30283,7 @@
       <c r="X39" s="5"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="28" t="s">
         <v>69</v>
       </c>
@@ -30322,7 +30320,7 @@
       <c r="X40" s="5"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="28" t="s">
         <v>340</v>
       </c>
@@ -30359,7 +30357,7 @@
       <c r="X41" s="5"/>
       <c r="Y41"/>
     </row>
-    <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>341</v>
       </c>
@@ -30396,7 +30394,7 @@
       <c r="X42" s="5"/>
       <c r="Y42"/>
     </row>
-    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
         <v>361</v>
       </c>
@@ -30433,7 +30431,7 @@
       <c r="X43" s="5"/>
       <c r="Y43"/>
     </row>
-    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="28" t="s">
         <v>363</v>
       </c>
@@ -30470,7 +30468,7 @@
       <c r="X44" s="5"/>
       <c r="Y44"/>
     </row>
-    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
         <v>71</v>
       </c>
@@ -30508,7 +30506,7 @@
       <c r="X45" s="5"/>
       <c r="Y45"/>
     </row>
-    <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="28" t="s">
         <v>72</v>
       </c>
@@ -30546,7 +30544,7 @@
       <c r="X46" s="5"/>
       <c r="Y46"/>
     </row>
-    <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="28" t="s">
         <v>73</v>
       </c>
@@ -30582,7 +30580,7 @@
       <c r="X47" s="5"/>
       <c r="Y47"/>
     </row>
-    <row r="48" spans="2:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
         <v>74</v>
       </c>
@@ -30618,7 +30616,7 @@
       <c r="X48" s="5"/>
       <c r="Y48"/>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" s="28" t="s">
         <v>75</v>
       </c>
@@ -30654,7 +30652,7 @@
       <c r="X49" s="5"/>
       <c r="Y49"/>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" s="28" t="s">
         <v>76</v>
       </c>
@@ -30692,7 +30690,7 @@
       <c r="X50" s="5"/>
       <c r="Y50"/>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" s="28" t="s">
         <v>77</v>
       </c>
@@ -30730,7 +30728,7 @@
       <c r="X51" s="5"/>
       <c r="Y51"/>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>452</v>
       </c>
@@ -30769,7 +30767,7 @@
       <c r="X52" s="5"/>
       <c r="Y52"/>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>452</v>
       </c>
@@ -30808,7 +30806,7 @@
       <c r="X53" s="5"/>
       <c r="Y53"/>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B54" s="28" t="s">
         <v>80</v>
       </c>
@@ -30844,7 +30842,7 @@
       <c r="X54" s="5"/>
       <c r="Y54"/>
     </row>
-    <row r="55" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="28" t="s">
         <v>81</v>
       </c>
@@ -30880,7 +30878,7 @@
       <c r="X55" s="5"/>
       <c r="Y55"/>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
         <v>82</v>
       </c>
@@ -30916,7 +30914,7 @@
       <c r="X56" s="5"/>
       <c r="Y56"/>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57" s="28" t="s">
         <v>83</v>
       </c>
@@ -30954,7 +30952,7 @@
       <c r="X57" s="5"/>
       <c r="Y57"/>
     </row>
-    <row r="58" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>84</v>
       </c>
@@ -30990,7 +30988,7 @@
       <c r="X58" s="5"/>
       <c r="Y58"/>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B59" s="28" t="s">
         <v>85</v>
       </c>
@@ -31026,7 +31024,7 @@
       <c r="X59" s="5"/>
       <c r="Y59"/>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B60" s="28" t="s">
         <v>86</v>
       </c>
@@ -31062,7 +31060,7 @@
       <c r="X60" s="5"/>
       <c r="Y60"/>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B61" s="28" t="s">
         <v>87</v>
       </c>
@@ -31098,7 +31096,7 @@
       <c r="X61" s="5"/>
       <c r="Y61"/>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B62" s="28" t="s">
         <v>88</v>
       </c>
@@ -31134,7 +31132,7 @@
       <c r="X62" s="5"/>
       <c r="Y62"/>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" t="s">
         <v>14</v>
@@ -31170,7 +31168,7 @@
       <c r="X63" s="5"/>
       <c r="Y63"/>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64" t="s">
         <v>13</v>
@@ -31209,7 +31207,7 @@
       <c r="X64" s="5"/>
       <c r="Y64"/>
     </row>
-    <row r="65" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" t="s">
         <v>16</v>
@@ -31248,7 +31246,7 @@
       <c r="X65" s="5"/>
       <c r="Y65"/>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -31286,7 +31284,7 @@
       <c r="X66" s="5"/>
       <c r="Y66"/>
     </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>452</v>
       </c>
@@ -31324,7 +31322,7 @@
       <c r="X67" s="5"/>
       <c r="Y67"/>
     </row>
-    <row r="68" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>91</v>
@@ -31363,7 +31361,7 @@
       <c r="X68" s="5"/>
       <c r="Y68"/>
     </row>
-    <row r="69" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69" s="28" t="s">
         <v>92</v>
@@ -31402,7 +31400,7 @@
       <c r="X69" s="5"/>
       <c r="Y69"/>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="28" t="s">
         <v>93</v>
@@ -31441,7 +31439,7 @@
       <c r="X70" s="5"/>
       <c r="Y70"/>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="28" t="s">
         <v>94</v>
@@ -31480,7 +31478,7 @@
       <c r="X71" s="5"/>
       <c r="Y71"/>
     </row>
-    <row r="72" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="28" t="s">
         <v>95</v>
@@ -31519,7 +31517,7 @@
       <c r="X72" s="5"/>
       <c r="Y72"/>
     </row>
-    <row r="73" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73" s="28" t="s">
         <v>96</v>
@@ -31558,7 +31556,7 @@
       <c r="X73" s="5"/>
       <c r="Y73"/>
     </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="28" t="s">
         <v>97</v>
@@ -31597,7 +31595,7 @@
       <c r="X74" s="5"/>
       <c r="Y74"/>
     </row>
-    <row r="75" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="28" t="s">
         <v>98</v>
@@ -31636,7 +31634,7 @@
       <c r="X75" s="5"/>
       <c r="Y75"/>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="28" t="s">
         <v>99</v>
@@ -31675,7 +31673,7 @@
       <c r="X76" s="5"/>
       <c r="Y76"/>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77" s="28" t="s">
         <v>100</v>
@@ -31711,7 +31709,7 @@
       <c r="X77" s="5"/>
       <c r="Y77"/>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="28" t="s">
         <v>101</v>
@@ -31750,7 +31748,7 @@
       <c r="X78" s="5"/>
       <c r="Y78"/>
     </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="28" t="s">
         <v>102</v>
@@ -31786,7 +31784,7 @@
       <c r="X79" s="5"/>
       <c r="Y79"/>
     </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="28" t="s">
         <v>103</v>
@@ -31822,7 +31820,7 @@
       <c r="X80" s="5"/>
       <c r="Y80"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="28" t="s">
         <v>104</v>
@@ -31861,7 +31859,7 @@
       <c r="X81" s="5"/>
       <c r="Y81"/>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="28" t="s">
         <v>105</v>
@@ -31897,7 +31895,7 @@
       <c r="X82" s="5"/>
       <c r="Y82"/>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>452</v>
       </c>
@@ -31935,7 +31933,7 @@
       <c r="X83" s="5"/>
       <c r="Y83"/>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="28" t="s">
         <v>107</v>
@@ -31974,7 +31972,7 @@
       <c r="X84" s="5"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="28" t="s">
         <v>108</v>
@@ -32013,7 +32011,7 @@
       <c r="X85" s="5"/>
       <c r="Y85"/>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>452</v>
       </c>
@@ -32054,7 +32052,7 @@
       <c r="X86" s="5"/>
       <c r="Y86"/>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="28" t="s">
         <v>110</v>
@@ -32093,7 +32091,7 @@
       <c r="X87" s="5"/>
       <c r="Y87"/>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88" s="28" t="s">
         <v>111</v>
@@ -32132,7 +32130,7 @@
       <c r="X88" s="5"/>
       <c r="Y88"/>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="28" t="s">
         <v>113</v>
@@ -32168,7 +32166,7 @@
       <c r="X89" s="5"/>
       <c r="Y89"/>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="28" t="s">
         <v>112</v>
@@ -32207,7 +32205,7 @@
       <c r="X90" s="5"/>
       <c r="Y90"/>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="28" t="s">
         <v>114</v>
@@ -32246,7 +32244,7 @@
       <c r="X91" s="5"/>
       <c r="Y91"/>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92" s="28" t="s">
         <v>115</v>
@@ -32285,7 +32283,7 @@
       <c r="X92" s="5"/>
       <c r="Y92"/>
     </row>
-    <row r="93" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93" s="28" t="s">
         <v>116</v>
@@ -32321,7 +32319,7 @@
       <c r="X93" s="5"/>
       <c r="Y93"/>
     </row>
-    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="28" t="s">
         <v>117</v>
@@ -32360,7 +32358,7 @@
       <c r="X94" s="5"/>
       <c r="Y94"/>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="28" t="s">
         <v>118</v>
@@ -32399,7 +32397,7 @@
       <c r="X95" s="5"/>
       <c r="Y95"/>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96" s="28" t="s">
         <v>119</v>
@@ -32438,7 +32436,7 @@
       <c r="X96" s="5"/>
       <c r="Y96"/>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="28" t="s">
         <v>120</v>
@@ -32477,7 +32475,7 @@
       <c r="X97" s="5"/>
       <c r="Y97"/>
     </row>
-    <row r="98" spans="1:25" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="28" t="s">
         <v>121</v>
@@ -32500,7 +32498,7 @@
       </c>
       <c r="Y98"/>
     </row>
-    <row r="99" spans="1:25" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="28" t="s">
         <v>122</v>
@@ -32523,7 +32521,7 @@
       </c>
       <c r="Y99"/>
     </row>
-    <row r="100" spans="1:25" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="28" t="s">
         <v>507</v>
@@ -32546,7 +32544,7 @@
       </c>
       <c r="Y100"/>
     </row>
-    <row r="101" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101" s="28" t="s">
         <v>123</v>
@@ -32569,7 +32567,7 @@
       </c>
       <c r="Y101"/>
     </row>
-    <row r="102" spans="1:25" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="28" t="s">
         <v>124</v>
@@ -32592,7 +32590,7 @@
       </c>
       <c r="Y102"/>
     </row>
-    <row r="103" spans="1:25" ht="388.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="28" t="s">
         <v>473</v>
@@ -32615,7 +32613,7 @@
       </c>
       <c r="Y103"/>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>452</v>
       </c>
@@ -32636,7 +32634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>452</v>
       </c>
@@ -32657,7 +32655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B106" s="28" t="s">
         <v>141</v>
       </c>
@@ -32675,7 +32673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B107" s="28" t="s">
         <v>126</v>
       </c>
@@ -32696,7 +32694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B108" s="28" t="s">
         <v>164</v>
       </c>
@@ -32714,7 +32712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B109" s="28" t="s">
         <v>142</v>
       </c>
@@ -32735,7 +32733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B110" s="28" t="s">
         <v>143</v>
       </c>
@@ -32756,7 +32754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B111" s="28" t="s">
         <v>144</v>
       </c>
@@ -32777,7 +32775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B112" s="28" t="s">
         <v>145</v>
       </c>
@@ -32795,7 +32793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B113" s="28" t="s">
         <v>146</v>
       </c>
@@ -32813,7 +32811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B114" s="28" t="s">
         <v>147</v>
       </c>
@@ -32831,7 +32829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B115" s="28" t="s">
         <v>148</v>
       </c>
@@ -32849,7 +32847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B116" s="28" t="s">
         <v>149</v>
       </c>
@@ -32867,7 +32865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>452</v>
       </c>
@@ -32891,7 +32889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>452</v>
       </c>
@@ -32915,7 +32913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
         <v>152</v>
       </c>
@@ -32936,7 +32934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B120" s="28" t="s">
         <v>153</v>
       </c>
@@ -32957,7 +32955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>452</v>
       </c>
@@ -32981,7 +32979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>452</v>
       </c>
@@ -33005,7 +33003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>452</v>
       </c>
@@ -33029,7 +33027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B124" s="28" t="s">
         <v>157</v>
       </c>
@@ -33050,7 +33048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>452</v>
       </c>
@@ -33074,7 +33072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B126" s="28" t="s">
         <v>159</v>
       </c>
@@ -33095,7 +33093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" s="28" t="s">
         <v>160</v>
       </c>
@@ -33116,7 +33114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B128" s="28" t="s">
         <v>161</v>
       </c>
@@ -33137,7 +33135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129" s="28" t="s">
         <v>127</v>
       </c>
@@ -33158,7 +33156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130" s="28" t="s">
         <v>128</v>
       </c>
@@ -33179,7 +33177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131" s="28" t="s">
         <v>129</v>
       </c>
@@ -33200,7 +33198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132" s="28" t="s">
         <v>130</v>
       </c>
@@ -33221,7 +33219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B133" s="28" t="s">
         <v>163</v>
       </c>
@@ -33242,7 +33240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134" s="28" t="s">
         <v>131</v>
       </c>
@@ -33263,7 +33261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135" s="28" t="s">
         <v>132</v>
       </c>
@@ -33284,7 +33282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136" s="28" t="s">
         <v>133</v>
       </c>
@@ -33305,7 +33303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137" s="28" t="s">
         <v>162</v>
       </c>
@@ -33326,7 +33324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138" s="28" t="s">
         <v>134</v>
       </c>
@@ -33347,7 +33345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139" s="28" t="s">
         <v>135</v>
       </c>
@@ -33368,7 +33366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140" s="28" t="s">
         <v>136</v>
       </c>
@@ -33389,7 +33387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141" s="28" t="s">
         <v>137</v>
       </c>
@@ -33410,7 +33408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142" s="28" t="s">
         <v>138</v>
       </c>
@@ -33431,7 +33429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143" s="28" t="s">
         <v>125</v>
       </c>
@@ -33452,7 +33450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B144" s="28" t="s">
         <v>166</v>
       </c>
@@ -33470,7 +33468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>452</v>
       </c>
@@ -33491,7 +33489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>452</v>
       </c>
@@ -33512,7 +33510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B147" s="28" t="s">
         <v>170</v>
       </c>
@@ -33530,7 +33528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B148" s="28" t="s">
         <v>171</v>
       </c>
@@ -33548,7 +33546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B149" s="28" t="s">
         <v>180</v>
       </c>
@@ -33566,7 +33564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>452</v>
       </c>
@@ -33587,7 +33585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B151" s="28" t="s">
         <v>191</v>
       </c>
@@ -33605,7 +33603,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B152" s="28" t="s">
         <v>172</v>
       </c>
@@ -33623,7 +33621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B153" s="28" t="s">
         <v>173</v>
       </c>
@@ -33641,7 +33639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>452</v>
       </c>
@@ -33662,7 +33660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B155" s="28" t="s">
         <v>192</v>
       </c>
@@ -33680,7 +33678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B156" s="28" t="s">
         <v>193</v>
       </c>
@@ -33698,7 +33696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B157" s="28" t="s">
         <v>174</v>
       </c>
@@ -33716,7 +33714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B158" s="28" t="s">
         <v>181</v>
       </c>
@@ -33734,7 +33732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B159" s="28" t="s">
         <v>211</v>
       </c>
@@ -33752,7 +33750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B160" s="28" t="s">
         <v>194</v>
       </c>
@@ -33770,7 +33768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B161" s="28" t="s">
         <v>195</v>
       </c>
@@ -33788,7 +33786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="51" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="49"/>
       <c r="B162" s="52" t="s">
         <v>196</v>
@@ -33825,7 +33823,7 @@
       <c r="X162" s="50"/>
       <c r="Y162" s="49"/>
     </row>
-    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B163" s="28" t="s">
         <v>175</v>
       </c>
@@ -33843,7 +33841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B164" s="28" t="s">
         <v>182</v>
       </c>
@@ -33861,7 +33859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B165" s="28" t="s">
         <v>183</v>
       </c>
@@ -33879,7 +33877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B166" s="28" t="s">
         <v>184</v>
       </c>
@@ -33897,7 +33895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B167" s="28" t="s">
         <v>185</v>
       </c>
@@ -33915,7 +33913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B168" s="28" t="s">
         <v>186</v>
       </c>
@@ -33933,7 +33931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B169" s="28" t="s">
         <v>187</v>
       </c>
@@ -33951,7 +33949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B170" s="28" t="s">
         <v>212</v>
       </c>
@@ -33969,7 +33967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B171" s="28" t="s">
         <v>176</v>
       </c>
@@ -33987,7 +33985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B172" s="28" t="s">
         <v>177</v>
       </c>
@@ -34005,7 +34003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B173" s="28" t="s">
         <v>213</v>
       </c>
@@ -34023,7 +34021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B174" s="28" t="s">
         <v>197</v>
       </c>
@@ -34044,7 +34042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B175" s="28" t="s">
         <v>198</v>
       </c>
@@ -34062,7 +34060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B176" s="28" t="s">
         <v>199</v>
       </c>
@@ -34080,7 +34078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177" s="28" t="s">
         <v>178</v>
       </c>
@@ -34098,7 +34096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178" s="28" t="s">
         <v>179</v>
       </c>
@@ -34116,7 +34114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179" s="28" t="s">
         <v>188</v>
       </c>
@@ -34134,7 +34132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B180" s="28" t="s">
         <v>200</v>
       </c>
@@ -34152,7 +34150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B181" s="28" t="s">
         <v>201</v>
       </c>
@@ -34170,7 +34168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182" s="28" t="s">
         <v>189</v>
       </c>
@@ -34188,7 +34186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="28" t="s">
         <v>202</v>
       </c>
@@ -34206,7 +34204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B184" s="28" t="s">
         <v>203</v>
       </c>
@@ -34224,7 +34222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B185" s="28" t="s">
         <v>204</v>
       </c>
@@ -34242,7 +34240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B186" s="28" t="s">
         <v>205</v>
       </c>
@@ -34260,7 +34258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B187" s="28" t="s">
         <v>206</v>
       </c>
@@ -34278,7 +34276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="28" t="s">
         <v>207</v>
       </c>
@@ -34296,7 +34294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="28" t="s">
         <v>208</v>
       </c>
@@ -34314,7 +34312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B190" s="28" t="s">
         <v>209</v>
       </c>
@@ -34332,7 +34330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B191" s="28" t="s">
         <v>210</v>
       </c>
@@ -34350,7 +34348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B192" s="28" t="s">
         <v>214</v>
       </c>
@@ -34368,7 +34366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B193" s="28" t="s">
         <v>165</v>
       </c>
@@ -34386,7 +34384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B194" s="28" t="s">
         <v>232</v>
       </c>
@@ -34404,7 +34402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B195" s="28" t="s">
         <v>233</v>
       </c>
@@ -34422,7 +34420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="28" t="s">
         <v>215</v>
       </c>
@@ -34440,7 +34438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="28" t="s">
         <v>216</v>
       </c>
@@ -34458,7 +34456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="28" t="s">
         <v>234</v>
       </c>
@@ -34476,7 +34474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B199" s="28" t="s">
         <v>235</v>
       </c>
@@ -34494,7 +34492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="28" t="s">
         <v>236</v>
       </c>
@@ -34512,7 +34510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="28" t="s">
         <v>218</v>
       </c>
@@ -34530,7 +34528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B202" s="28" t="s">
         <v>219</v>
       </c>
@@ -34548,7 +34546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="28" t="s">
         <v>238</v>
       </c>
@@ -34566,7 +34564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="28" t="s">
         <v>239</v>
       </c>
@@ -34584,7 +34582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B205" s="28" t="s">
         <v>240</v>
       </c>
@@ -34602,7 +34600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="28" t="s">
         <v>220</v>
       </c>
@@ -34620,7 +34618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B207" s="28" t="s">
         <v>217</v>
       </c>
@@ -34638,7 +34636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208" s="28" t="s">
         <v>237</v>
       </c>
@@ -34656,7 +34654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="28" t="s">
         <v>221</v>
       </c>
@@ -34674,7 +34672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="28" t="s">
         <v>222</v>
       </c>
@@ -34692,7 +34690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="28" t="s">
         <v>241</v>
       </c>
@@ -34710,7 +34708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="28" t="s">
         <v>223</v>
       </c>
@@ -34728,7 +34726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="28" t="s">
         <v>224</v>
       </c>
@@ -34746,7 +34744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B214" s="28" t="s">
         <v>225</v>
       </c>
@@ -34767,7 +34765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="2:15" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B215" s="28" t="s">
         <v>226</v>
       </c>
@@ -34788,7 +34786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216" s="28" t="s">
         <v>227</v>
       </c>
@@ -34809,7 +34807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B217" s="28" t="s">
         <v>228</v>
       </c>
@@ -34830,7 +34828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B218" s="28" t="s">
         <v>229</v>
       </c>
@@ -34851,7 +34849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="28" t="s">
         <v>242</v>
       </c>
@@ -34869,7 +34867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="28" t="s">
         <v>243</v>
       </c>
@@ -34887,7 +34885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="28" t="s">
         <v>244</v>
       </c>
@@ -34905,7 +34903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B222" s="28" t="s">
         <v>230</v>
       </c>
@@ -34926,7 +34924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B223" s="28" t="s">
         <v>231</v>
       </c>
@@ -34947,7 +34945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224" s="28" t="s">
         <v>245</v>
       </c>
@@ -34968,7 +34966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225" s="28" t="s">
         <v>691</v>
@@ -34991,7 +34989,7 @@
       </c>
       <c r="Y225"/>
     </row>
-    <row r="226" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226" s="28" t="s">
         <v>694</v>
@@ -35030,7 +35028,7 @@
       <c r="X226" s="5"/>
       <c r="Y226"/>
     </row>
-    <row r="227" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227" s="28" t="s">
         <v>693</v>
@@ -35069,7 +35067,7 @@
       <c r="X227" s="5"/>
       <c r="Y227"/>
     </row>
-    <row r="228" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B228" s="28" t="s">
         <v>692</v>
       </c>
@@ -35107,7 +35105,7 @@
       <c r="X228" s="5"/>
       <c r="Y228"/>
     </row>
-    <row r="229" spans="1:25" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229" s="28" t="s">
         <v>690</v>
@@ -35146,7 +35144,7 @@
       <c r="X229" s="5"/>
       <c r="Y229"/>
     </row>
-    <row r="230" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230" t="s">
         <v>270</v>
@@ -35183,7 +35181,7 @@
       <c r="X230" s="5"/>
       <c r="Y230"/>
     </row>
-    <row r="231" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231" t="s">
         <v>9</v>
@@ -35226,7 +35224,7 @@
       <c r="X231" s="5"/>
       <c r="Y231"/>
     </row>
-    <row r="232" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232" t="s">
         <v>44</v>
@@ -35265,7 +35263,7 @@
       <c r="X232" s="5"/>
       <c r="Y232"/>
     </row>
-    <row r="233" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233" t="s">
         <v>39</v>
@@ -35308,7 +35306,7 @@
       <c r="X233" s="5"/>
       <c r="Y233"/>
     </row>
-    <row r="234" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234" t="s">
         <v>41</v>
@@ -35347,7 +35345,7 @@
       <c r="X234" s="5"/>
       <c r="Y234"/>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235"/>
       <c r="B235" t="s">
         <v>712</v>
@@ -35386,7 +35384,7 @@
       <c r="X235" s="5"/>
       <c r="Y235"/>
     </row>
-    <row r="236" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A236"/>
       <c r="B236" t="s">
         <v>45</v>
@@ -35427,7 +35425,7 @@
       <c r="X236" s="5"/>
       <c r="Y236"/>
     </row>
-    <row r="237" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237"/>
       <c r="B237" t="s">
         <v>271</v>
@@ -35464,7 +35462,7 @@
       <c r="X237" s="5"/>
       <c r="Y237"/>
     </row>
-    <row r="238" spans="1:25" s="28" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="28" t="s">
         <v>46</v>
       </c>
@@ -35501,7 +35499,7 @@
       <c r="W238" s="40"/>
       <c r="X238" s="40"/>
     </row>
-    <row r="239" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239"/>
       <c r="B239" t="s">
         <v>272</v>
@@ -35538,7 +35536,7 @@
       <c r="X239" s="5"/>
       <c r="Y239"/>
     </row>
-    <row r="240" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240"/>
       <c r="B240" t="s">
         <v>47</v>
@@ -35577,7 +35575,7 @@
       <c r="X240" s="5"/>
       <c r="Y240"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>248</v>
       </c>
@@ -35610,7 +35608,7 @@
       <c r="W241" s="5"/>
       <c r="X241" s="5"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>246</v>
       </c>
@@ -35646,7 +35644,7 @@
       <c r="W242" s="5"/>
       <c r="X242" s="5"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>247</v>
       </c>
@@ -35682,7 +35680,7 @@
       <c r="W243" s="5"/>
       <c r="X243" s="5"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>249</v>
       </c>
@@ -35715,7 +35713,7 @@
       <c r="W244" s="5"/>
       <c r="X244" s="5"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>250</v>
       </c>
@@ -35748,7 +35746,7 @@
       <c r="W245" s="5"/>
       <c r="X245" s="5"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>251</v>
       </c>
@@ -35784,7 +35782,7 @@
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>253</v>
       </c>
@@ -35821,7 +35819,7 @@
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>254</v>
       </c>
@@ -35857,7 +35855,7 @@
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>726</v>
       </c>
@@ -35893,7 +35891,7 @@
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>257</v>
       </c>
@@ -35929,7 +35927,7 @@
       <c r="W250" s="5"/>
       <c r="X250" s="5"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>258</v>
       </c>
@@ -35965,7 +35963,7 @@
       <c r="W251" s="5"/>
       <c r="X251" s="5"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>259</v>
       </c>
@@ -36000,7 +35998,7 @@
       <c r="W252" s="5"/>
       <c r="X252" s="5"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>260</v>
       </c>
@@ -36035,7 +36033,7 @@
       <c r="W253" s="5"/>
       <c r="X253" s="5"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>261</v>
       </c>
@@ -36070,7 +36068,7 @@
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>262</v>
       </c>
@@ -36105,7 +36103,7 @@
       <c r="W255" s="5"/>
       <c r="X255" s="5"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>255</v>
       </c>
@@ -36140,7 +36138,7 @@
       <c r="W256" s="5"/>
       <c r="X256" s="5"/>
     </row>
-    <row r="257" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>256</v>
       </c>
@@ -36175,7 +36173,7 @@
       <c r="W257" s="5"/>
       <c r="X257" s="5"/>
     </row>
-    <row r="258" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>265</v>
       </c>
@@ -36210,7 +36208,7 @@
       <c r="W258" s="5"/>
       <c r="X258" s="5"/>
     </row>
-    <row r="259" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>263</v>
       </c>
@@ -36245,7 +36243,7 @@
       <c r="W259" s="5"/>
       <c r="X259" s="5"/>
     </row>
-    <row r="260" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>264</v>
       </c>
@@ -36280,7 +36278,7 @@
       <c r="W260" s="5"/>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>252</v>
       </c>
@@ -36315,7 +36313,7 @@
       <c r="W261" s="5"/>
       <c r="X261" s="5"/>
     </row>
-    <row r="262" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>266</v>
       </c>
@@ -36348,7 +36346,7 @@
       <c r="W262" s="5"/>
       <c r="X262" s="5"/>
     </row>
-    <row r="263" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>267</v>
       </c>
@@ -36381,7 +36379,7 @@
       <c r="W263" s="5"/>
       <c r="X263" s="5"/>
     </row>
-    <row r="264" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>268</v>
       </c>
@@ -36414,7 +36412,7 @@
       <c r="W264" s="5"/>
       <c r="X264" s="5"/>
     </row>
-    <row r="265" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>269</v>
       </c>
@@ -36447,7 +36445,7 @@
       <c r="W265" s="5"/>
       <c r="X265" s="5"/>
     </row>
-    <row r="266" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>278</v>
       </c>
@@ -36481,7 +36479,7 @@
       <c r="W266" s="5"/>
       <c r="X266" s="5"/>
     </row>
-    <row r="267" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>279</v>
       </c>
@@ -36511,7 +36509,7 @@
       <c r="W267" s="5"/>
       <c r="X267" s="5"/>
     </row>
-    <row r="268" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>280</v>
       </c>
@@ -36541,7 +36539,7 @@
       <c r="W268" s="5"/>
       <c r="X268" s="5"/>
     </row>
-    <row r="269" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>281</v>
       </c>
@@ -36571,7 +36569,7 @@
       <c r="W269" s="5"/>
       <c r="X269" s="5"/>
     </row>
-    <row r="270" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>282</v>
       </c>
@@ -36601,7 +36599,7 @@
       <c r="W270" s="5"/>
       <c r="X270" s="5"/>
     </row>
-    <row r="271" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>283</v>
       </c>
@@ -36631,7 +36629,7 @@
       <c r="W271" s="5"/>
       <c r="X271" s="5"/>
     </row>
-    <row r="272" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>284</v>
       </c>
@@ -36664,7 +36662,7 @@
       <c r="W272" s="5"/>
       <c r="X272" s="5"/>
     </row>
-    <row r="273" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>285</v>
       </c>
@@ -36697,7 +36695,7 @@
       <c r="W273" s="5"/>
       <c r="X273" s="5"/>
     </row>
-    <row r="274" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>286</v>
       </c>
@@ -36730,7 +36728,7 @@
       <c r="W274" s="5"/>
       <c r="X274" s="5"/>
     </row>
-    <row r="275" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>287</v>
       </c>
@@ -36763,7 +36761,7 @@
       <c r="W275" s="5"/>
       <c r="X275" s="5"/>
     </row>
-    <row r="276" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>288</v>
       </c>
@@ -36796,7 +36794,7 @@
       <c r="W276" s="5"/>
       <c r="X276" s="5"/>
     </row>
-    <row r="277" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>289</v>
       </c>
@@ -36829,7 +36827,7 @@
       <c r="W277" s="5"/>
       <c r="X277" s="5"/>
     </row>
-    <row r="278" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>291</v>
       </c>
@@ -36867,7 +36865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>292</v>
       </c>
@@ -36903,7 +36901,7 @@
       <c r="W279" s="5"/>
       <c r="X279" s="5"/>
     </row>
-    <row r="280" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>293</v>
       </c>
@@ -36941,7 +36939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>294</v>
       </c>
@@ -36977,7 +36975,7 @@
       <c r="W281" s="5"/>
       <c r="X281" s="5"/>
     </row>
-    <row r="282" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>295</v>
       </c>
@@ -37010,7 +37008,7 @@
       <c r="W282" s="5"/>
       <c r="X282" s="5"/>
     </row>
-    <row r="283" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>791</v>
       </c>
@@ -37043,7 +37041,7 @@
       <c r="W283" s="5"/>
       <c r="X283" s="5"/>
     </row>
-    <row r="284" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>792</v>
       </c>
@@ -37076,7 +37074,7 @@
       <c r="W284" s="5"/>
       <c r="X284" s="5"/>
     </row>
-    <row r="285" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>793</v>
       </c>
@@ -37109,7 +37107,7 @@
       <c r="W285" s="5"/>
       <c r="X285" s="5"/>
     </row>
-    <row r="286" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>794</v>
       </c>
@@ -37142,7 +37140,7 @@
       <c r="W286" s="5"/>
       <c r="X286" s="5"/>
     </row>
-    <row r="287" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>795</v>
       </c>
@@ -37175,7 +37173,7 @@
       <c r="W287" s="5"/>
       <c r="X287" s="5"/>
     </row>
-    <row r="288" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>296</v>
       </c>
@@ -37213,7 +37211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>297</v>
       </c>
@@ -37251,7 +37249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>298</v>
       </c>
@@ -37289,7 +37287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>299</v>
       </c>
@@ -37327,7 +37325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>300</v>
       </c>
@@ -37365,7 +37363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>301</v>
       </c>
@@ -37400,7 +37398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>314</v>
       </c>
@@ -37438,7 +37436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>315</v>
       </c>
@@ -37473,7 +37471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>302</v>
       </c>
@@ -37508,7 +37506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>303</v>
       </c>
@@ -37544,7 +37542,7 @@
       <c r="W297" s="5"/>
       <c r="X297" s="5"/>
     </row>
-    <row r="298" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>304</v>
       </c>
@@ -37580,7 +37578,7 @@
       <c r="W298" s="5"/>
       <c r="X298" s="5"/>
     </row>
-    <row r="299" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>305</v>
       </c>
@@ -37615,7 +37613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>306</v>
       </c>
@@ -37648,7 +37646,7 @@
       <c r="W300" s="5"/>
       <c r="X300" s="5"/>
     </row>
-    <row r="301" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>307</v>
       </c>
@@ -37681,7 +37679,7 @@
       <c r="W301" s="5"/>
       <c r="X301" s="5"/>
     </row>
-    <row r="302" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>308</v>
       </c>
@@ -37717,7 +37715,7 @@
       <c r="W302" s="5"/>
       <c r="X302" s="5"/>
     </row>
-    <row r="303" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>309</v>
       </c>
@@ -37753,7 +37751,7 @@
       <c r="W303" s="5"/>
       <c r="X303" s="5"/>
     </row>
-    <row r="304" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>290</v>
       </c>
@@ -37786,7 +37784,7 @@
       <c r="W304" s="5"/>
       <c r="X304" s="5"/>
     </row>
-    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305"/>
       <c r="B305" t="s">
         <v>310</v>
@@ -37823,7 +37821,7 @@
       </c>
       <c r="Y305"/>
     </row>
-    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306"/>
       <c r="B306" t="s">
         <v>311</v>
@@ -37860,7 +37858,7 @@
       </c>
       <c r="Y306"/>
     </row>
-    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307"/>
       <c r="B307" t="s">
         <v>312</v>
@@ -37899,7 +37897,7 @@
       </c>
       <c r="Y307"/>
     </row>
-    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308"/>
       <c r="B308" t="s">
         <v>313</v>
@@ -37938,7 +37936,7 @@
       </c>
       <c r="Y308"/>
     </row>
-    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309"/>
       <c r="B309" t="s">
         <v>316</v>
@@ -37975,7 +37973,7 @@
       </c>
       <c r="Y309"/>
     </row>
-    <row r="310" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="56" t="s">
         <v>317</v>
       </c>
@@ -38011,7 +38009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="311" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="56" t="s">
         <v>318</v>
       </c>
@@ -38047,7 +38045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="312" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="56" t="s">
         <v>319</v>
       </c>
@@ -38083,7 +38081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="52"/>
       <c r="B313" s="56" t="s">
         <v>1039</v>
@@ -38120,7 +38118,7 @@
       <c r="X313" s="59"/>
       <c r="Y313" s="52"/>
     </row>
-    <row r="314" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="52"/>
       <c r="B314" s="52" t="s">
         <v>1041</v>
@@ -38157,7 +38155,7 @@
       <c r="X314" s="59"/>
       <c r="Y314" s="52"/>
     </row>
-    <row r="315" spans="1:25" s="56" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="52"/>
       <c r="B315" s="56" t="s">
         <v>1046</v>
@@ -38194,7 +38192,7 @@
       <c r="X315" s="59"/>
       <c r="Y315" s="52"/>
     </row>
-    <row r="316" spans="1:25" s="56" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="52"/>
       <c r="B316" s="56" t="s">
         <v>1040</v>
@@ -38231,7 +38229,7 @@
       <c r="X316" s="59"/>
       <c r="Y316" s="52"/>
     </row>
-    <row r="317" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="52"/>
       <c r="B317" s="56" t="s">
         <v>1076</v>
@@ -38270,7 +38268,7 @@
       </c>
       <c r="Y317" s="52"/>
     </row>
-    <row r="318" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="52"/>
       <c r="B318" s="56" t="s">
         <v>1077</v>
@@ -38309,7 +38307,7 @@
       </c>
       <c r="Y318" s="52"/>
     </row>
-    <row r="319" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="52"/>
       <c r="B319" s="56" t="s">
         <v>1072</v>
@@ -38346,7 +38344,7 @@
       <c r="X319" s="59"/>
       <c r="Y319" s="52"/>
     </row>
-    <row r="320" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="52"/>
       <c r="B320" s="56" t="s">
         <v>1073</v>
@@ -38383,7 +38381,7 @@
       <c r="X320" s="59"/>
       <c r="Y320" s="52"/>
     </row>
-    <row r="321" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="52"/>
       <c r="B321" s="56" t="s">
         <v>1071</v>
@@ -38422,7 +38420,7 @@
       <c r="X321" s="59"/>
       <c r="Y321" s="52"/>
     </row>
-    <row r="322" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="52"/>
       <c r="B322" s="56" t="s">
         <v>1069</v>
@@ -38461,7 +38459,7 @@
       <c r="X322" s="59"/>
       <c r="Y322" s="52"/>
     </row>
-    <row r="323" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="52"/>
       <c r="B323" s="56" t="s">
         <v>56</v>
@@ -38498,7 +38496,7 @@
       <c r="X323" s="59"/>
       <c r="Y323" s="52"/>
     </row>
-    <row r="324" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="52"/>
       <c r="B324" s="56" t="s">
         <v>1064</v>
@@ -38535,7 +38533,7 @@
       <c r="X324" s="59"/>
       <c r="Y324" s="52"/>
     </row>
-    <row r="325" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="52"/>
       <c r="B325" s="56" t="s">
         <v>1066</v>
@@ -38572,7 +38570,7 @@
       <c r="X325" s="59"/>
       <c r="Y325" s="52"/>
     </row>
-    <row r="326" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="52"/>
       <c r="B326" s="56" t="s">
         <v>1068</v>
@@ -38609,7 +38607,7 @@
       <c r="X326" s="59"/>
       <c r="Y326" s="52"/>
     </row>
-    <row r="327" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="52"/>
       <c r="B327" s="56" t="s">
         <v>1061</v>
@@ -38646,7 +38644,7 @@
       <c r="X327" s="59"/>
       <c r="Y327" s="52"/>
     </row>
-    <row r="328" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="52"/>
       <c r="B328" s="56" t="s">
         <v>1057</v>
@@ -38683,7 +38681,7 @@
       <c r="X328" s="59"/>
       <c r="Y328" s="52"/>
     </row>
-    <row r="329" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="52"/>
       <c r="B329" s="56" t="s">
         <v>1060</v>
@@ -38720,7 +38718,7 @@
       <c r="X329" s="59"/>
       <c r="Y329" s="52"/>
     </row>
-    <row r="330" spans="1:25" s="56" customFormat="1" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A330" s="52"/>
       <c r="B330" s="56" t="s">
         <v>1054</v>
@@ -38759,7 +38757,7 @@
       <c r="X330" s="59"/>
       <c r="Y330" s="52"/>
     </row>
-    <row r="331" spans="1:25" s="56" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="52"/>
       <c r="B331" s="56" t="s">
         <v>1055</v>
@@ -38799,14 +38797,7 @@
       <c r="Y331" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PAR"/>
-        <filter val="PARTIME"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -38818,12 +38809,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>428</v>
       </c>
@@ -38837,7 +38828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -38851,7 +38842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>446</v>
       </c>
@@ -38865,7 +38856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>445</v>
       </c>
@@ -38879,7 +38870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>444</v>
       </c>
@@ -38893,7 +38884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -38907,7 +38898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>429</v>
       </c>
@@ -38921,7 +38912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>430</v>
       </c>
@@ -38935,7 +38926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>431</v>
       </c>
@@ -38949,7 +38940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>432</v>
       </c>
@@ -38963,7 +38954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>433</v>
       </c>
@@ -38977,7 +38968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -38991,7 +38982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>435</v>
       </c>
@@ -39005,7 +38996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>587</v>
       </c>
@@ -39019,7 +39010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>436</v>
       </c>
@@ -39033,7 +39024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -39047,7 +39038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>438</v>
       </c>
@@ -39061,7 +39052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>439</v>
       </c>
@@ -39075,7 +39066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>442</v>
       </c>
@@ -39089,7 +39080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>441</v>
       </c>
@@ -39103,7 +39094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>440</v>
       </c>
@@ -39132,14 +39123,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -39237,7 +39228,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -39320,7 +39311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -39403,7 +39394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -39486,7 +39477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -39586,13 +39577,13 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -39690,7 +39681,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -39773,7 +39764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -39856,7 +39847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -39939,7 +39930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -39982,15 +39973,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
     <col min="4" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -40088,7 +40079,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -40171,7 +40162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -40254,7 +40245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -40337,7 +40328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -40420,7 +40411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -40476,7 +40467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
@@ -40559,7 +40550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>33</v>
       </c>
@@ -40633,7 +40624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
@@ -40710,7 +40701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>51</v>
       </c>
@@ -40793,7 +40784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
@@ -40876,7 +40867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>53</v>
       </c>
@@ -40959,7 +40950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
@@ -41042,7 +41033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -41125,7 +41116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
@@ -41208,7 +41199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
@@ -41262,7 +41253,7 @@
       </c>
       <c r="AA16" s="56"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>58</v>
       </c>
@@ -41295,7 +41286,7 @@
       </c>
       <c r="AA17" s="56"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>59</v>
       </c>
@@ -41376,7 +41367,7 @@
       </c>
       <c r="AA18" s="63"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>60</v>
       </c>
@@ -41441,7 +41432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>61</v>
       </c>
@@ -41524,7 +41515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>62</v>
       </c>
@@ -41607,7 +41598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>63</v>
       </c>
@@ -41690,7 +41681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>64</v>
       </c>
@@ -41746,7 +41737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>65</v>
       </c>
@@ -41802,7 +41793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>66</v>
       </c>
@@ -41858,7 +41849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>67</v>
       </c>
@@ -41914,7 +41905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>70</v>
       </c>
@@ -41978,7 +41969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>337</v>
       </c>
@@ -42009,7 +42000,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="64"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -42065,7 +42056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>341</v>
       </c>
@@ -42121,7 +42112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>342</v>
       </c>
@@ -42177,7 +42168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>338</v>
       </c>
@@ -42257,14 +42248,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
     <col min="4" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -42362,7 +42353,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -42445,7 +42436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -42528,7 +42519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -42611,7 +42602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -42667,7 +42658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
@@ -42750,7 +42741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -42824,7 +42815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
@@ -42901,7 +42892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>51</v>
       </c>
@@ -42984,7 +42975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
@@ -43067,7 +43058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>53</v>
       </c>
@@ -43150,7 +43141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>54</v>
       </c>
@@ -43233,7 +43224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
@@ -43316,7 +43307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
@@ -43399,7 +43390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
@@ -43453,7 +43444,7 @@
       </c>
       <c r="AA15" s="57"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
@@ -43486,7 +43477,7 @@
       </c>
       <c r="AA16" s="57"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
@@ -43567,7 +43558,7 @@
       </c>
       <c r="AA17" s="60"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
@@ -43623,7 +43614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>61</v>
       </c>
@@ -43706,7 +43697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -43789,7 +43780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>63</v>
       </c>
@@ -43872,7 +43863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>64</v>
       </c>
@@ -43928,7 +43919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>65</v>
       </c>
@@ -43984,7 +43975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
@@ -44040,7 +44031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>67</v>
       </c>
@@ -44096,7 +44087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>70</v>
       </c>
@@ -44160,7 +44151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>337</v>
       </c>
@@ -44183,7 +44174,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="64"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -44248,7 +44239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>339</v>
       </c>
@@ -44304,7 +44295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>340</v>
       </c>
@@ -44360,7 +44351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>341</v>
       </c>
@@ -44416,7 +44407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>342</v>
       </c>
@@ -44472,7 +44463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>338</v>
       </c>
@@ -44543,12 +44534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009751835CD414CC46B42FC830D124F282" ma:contentTypeVersion="3" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="734608599edb9e534b5c1f5aed05870b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0ca655e-bd60-4883-8c29-d6111a25fe13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b929488029f66b1850ce1557473a41e" ns2:_="">
     <xsd:import namespace="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
@@ -44696,6 +44681,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -44706,22 +44697,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43AA01A-6291-4146-A29D-1ECC48A0ABAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44739,6 +44714,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EB524F-E0B3-40C0-AF3E-75CDFAF009E6}">
   <ds:schemaRefs>

--- a/documentazione_storico_versione11.1.xlsx
+++ b/documentazione_storico_versione11.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6759C5C2-7C8D-4360-9B65-3CD3F9809DA1}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED97DDD-53A3-4355-978E-2F98DEC60EBA}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11775" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principali novità" sheetId="2" r:id="rId1"/>
@@ -5194,28 +5194,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
   </sheetData>
@@ -5234,16 +5234,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
     <col min="4" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -6152,17 +6152,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="5" customWidth="1"/>
     <col min="5" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>521</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
         <v>1</v>
@@ -6430,7 +6430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
@@ -6492,7 +6492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>72</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>73</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="18" t="s">
         <v>75</v>
@@ -6825,7 +6825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>76</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>77</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>452</v>
       </c>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="AC11" s="67"/>
     </row>
-    <row r="12" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>452</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="AB12" s="57"/>
       <c r="AC12" s="67"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>80</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>81</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="18" t="s">
         <v>82</v>
@@ -7248,7 +7248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>83</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>84</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>85</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="18" t="s">
         <v>86</v>
@@ -7460,7 +7460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>87</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
         <v>88</v>
@@ -7598,16 +7598,16 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>521</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -7958,7 +7958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -8075,7 +8075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>452</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>94</v>
@@ -8615,7 +8615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>97</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>103</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>104</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>105</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>452</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>107</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>108</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>452</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>110</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>111</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>112</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>114</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>115</v>
@@ -10155,7 +10155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>116</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>117</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>118</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>119</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>120</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>121</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B41" s="56" t="s">
         <v>1054</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B42" s="56" t="s">
         <v>122</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B43" s="56" t="s">
         <v>507</v>
       </c>
@@ -10682,7 +10682,7 @@
       <c r="AA43" s="57"/>
       <c r="AB43" s="57"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>123</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B45" s="56" t="s">
         <v>124</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B46" s="56" t="s">
         <v>473</v>
       </c>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="AB46" s="57"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="63" t="s">
         <v>1055</v>
@@ -10956,19 +10956,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="22" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" style="57" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="5" style="57" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="56" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" style="56"/>
+    <col min="30" max="31" width="9.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>521</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="AD1" s="79"/>
       <c r="AE1" s="79"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="63"/>
       <c r="B3" s="63" t="s">
         <v>1</v>
@@ -11239,7 +11239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>452</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="AD4" s="80"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>452</v>
       </c>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="AD5" s="80"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" s="56" t="s">
         <v>141</v>
       </c>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="AD6" s="80"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" s="56" t="s">
         <v>126</v>
       </c>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="AD7" s="80"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B8" s="56" t="s">
         <v>164</v>
       </c>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="AD8" s="80"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B9" s="56" t="s">
         <v>142</v>
       </c>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="AD9" s="80"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10" s="56" t="s">
         <v>143</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11" s="56" t="s">
         <v>144</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B12" s="56" t="s">
         <v>145</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>452</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>452</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B15" s="56" t="s">
         <v>148</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B16" s="56" t="s">
         <v>149</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>452</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>452</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
         <v>152</v>
@@ -12057,7 +12057,7 @@
       <c r="AD19" s="56"/>
       <c r="AE19" s="56"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>452</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>452</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>452</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="56" t="s">
         <v>153</v>
@@ -12266,7 +12266,7 @@
       <c r="AD23" s="56"/>
       <c r="AE23" s="56"/>
     </row>
-    <row r="24" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="56" t="s">
         <v>157</v>
@@ -12331,7 +12331,7 @@
       <c r="AD24" s="56"/>
       <c r="AE24" s="56"/>
     </row>
-    <row r="25" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
       <c r="B25" s="56" t="s">
         <v>1064</v>
@@ -12370,7 +12370,7 @@
       <c r="AD25" s="56"/>
       <c r="AE25" s="56"/>
     </row>
-    <row r="26" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>452</v>
       </c>
@@ -12435,7 +12435,7 @@
       <c r="AD26" s="56"/>
       <c r="AE26" s="56"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B27" s="56" t="s">
         <v>159</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B28" s="56" t="s">
         <v>160</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B29" s="56" t="s">
         <v>161</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B30" s="56" t="s">
         <v>127</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
       <c r="B31" s="56" t="s">
         <v>128</v>
@@ -12678,7 +12678,7 @@
       <c r="AD31" s="56"/>
       <c r="AE31" s="56"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B32" s="56" t="s">
         <v>129</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
       <c r="B33" s="56" t="s">
         <v>130</v>
@@ -12790,7 +12790,7 @@
       <c r="AD33" s="56"/>
       <c r="AE33" s="56"/>
     </row>
-    <row r="34" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="56"/>
       <c r="B34" s="56" t="s">
         <v>163</v>
@@ -12863,7 +12863,7 @@
       <c r="AD34" s="56"/>
       <c r="AE34" s="56"/>
     </row>
-    <row r="35" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="56" t="s">
         <v>1066</v>
@@ -12902,7 +12902,7 @@
       <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B36" s="56" t="s">
         <v>131</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B37" s="56" t="s">
         <v>132</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56"/>
       <c r="B38" s="56" t="s">
         <v>134</v>
@@ -13086,7 +13086,7 @@
       <c r="AD38" s="56"/>
       <c r="AE38" s="56"/>
     </row>
-    <row r="39" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
       <c r="B39" s="56" t="s">
         <v>135</v>
@@ -13149,7 +13149,7 @@
       <c r="AD39" s="56"/>
       <c r="AE39" s="56"/>
     </row>
-    <row r="40" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="56" t="s">
         <v>133</v>
@@ -13222,7 +13222,7 @@
       <c r="AD40" s="56"/>
       <c r="AE40" s="56"/>
     </row>
-    <row r="41" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="56"/>
       <c r="B41" s="56" t="s">
         <v>1068</v>
@@ -13261,7 +13261,7 @@
       <c r="AD41" s="56"/>
       <c r="AE41" s="56"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B42" s="56" t="s">
         <v>162</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B43" s="56" t="s">
         <v>136</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>137</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B45" s="56" t="s">
         <v>138</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B46" s="56" t="s">
         <v>125</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="63"/>
       <c r="B47" s="63" t="s">
         <v>166</v>
@@ -13524,7 +13524,7 @@
       <c r="AA47" s="60"/>
       <c r="AB47" s="60"/>
     </row>
-    <row r="48" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="56" t="s">
         <v>452</v>
       </c>
@@ -13589,7 +13589,7 @@
       <c r="AD48" s="56"/>
       <c r="AE48" s="56"/>
     </row>
-    <row r="49" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="56" t="s">
         <v>452</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="AD49" s="56"/>
       <c r="AE49" s="56"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B50" s="56" t="s">
         <v>170</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="56"/>
       <c r="B51" s="56" t="s">
         <v>171</v>
@@ -13745,7 +13745,7 @@
       <c r="AD51" s="56"/>
       <c r="AE51" s="56"/>
     </row>
-    <row r="52" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="56"/>
       <c r="B52" s="56" t="s">
         <v>180</v>
@@ -13804,7 +13804,7 @@
       <c r="AD52" s="56"/>
       <c r="AE52" s="56"/>
     </row>
-    <row r="53" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="56"/>
       <c r="B53" s="56" t="s">
         <v>173</v>
@@ -13869,7 +13869,7 @@
       <c r="AD53" s="56"/>
       <c r="AE53" s="56"/>
     </row>
-    <row r="54" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="56" t="s">
         <v>1061</v>
@@ -13908,7 +13908,7 @@
       <c r="AD54" s="56"/>
       <c r="AE54" s="56"/>
     </row>
-    <row r="55" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="56" t="s">
         <v>452</v>
       </c>
@@ -13967,7 +13967,7 @@
       <c r="AD55" s="56"/>
       <c r="AE55" s="56"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B56" s="56" t="s">
         <v>191</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B57" s="56" t="s">
         <v>172</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="56" t="s">
         <v>452</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="AD58" s="56"/>
       <c r="AE58" s="56"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B59" s="56" t="s">
         <v>192</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="56" t="s">
         <v>193</v>
@@ -14231,7 +14231,7 @@
       <c r="AD60" s="56"/>
       <c r="AE60" s="56"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B61" s="56" t="s">
         <v>174</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="56" t="s">
         <v>181</v>
@@ -14343,7 +14343,7 @@
       <c r="AD62" s="56"/>
       <c r="AE62" s="56"/>
     </row>
-    <row r="63" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="56"/>
       <c r="B63" s="56" t="s">
         <v>211</v>
@@ -14410,7 +14410,7 @@
       <c r="AD63" s="56"/>
       <c r="AE63" s="56"/>
     </row>
-    <row r="64" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="56"/>
       <c r="B64" s="56" t="s">
         <v>1057</v>
@@ -14449,7 +14449,7 @@
       <c r="AD64" s="56"/>
       <c r="AE64" s="56"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B65" s="56" t="s">
         <v>194</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B66" s="56" t="s">
         <v>195</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="56"/>
       <c r="B67" s="56" t="s">
         <v>196</v>
@@ -14628,7 +14628,7 @@
       <c r="AD67" s="56"/>
       <c r="AE67" s="56"/>
     </row>
-    <row r="68" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="56" t="s">
         <v>182</v>
@@ -14691,7 +14691,7 @@
       <c r="AD68" s="56"/>
       <c r="AE68" s="56"/>
     </row>
-    <row r="69" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="56"/>
       <c r="B69" s="56" t="s">
         <v>183</v>
@@ -14754,7 +14754,7 @@
       <c r="AD69" s="56"/>
       <c r="AE69" s="56"/>
     </row>
-    <row r="70" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="56"/>
       <c r="B70" s="56" t="s">
         <v>1060</v>
@@ -14793,7 +14793,7 @@
       <c r="AD70" s="56"/>
       <c r="AE70" s="56"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B71" s="56" t="s">
         <v>175</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B72" s="56" t="s">
         <v>184</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B73" s="56" t="s">
         <v>185</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B74" s="56" t="s">
         <v>186</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="63"/>
       <c r="B75" s="63" t="s">
         <v>187</v>
@@ -15018,7 +15018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B76" s="56" t="s">
         <v>212</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B77" s="56" t="s">
         <v>176</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B78" s="56" t="s">
         <v>177</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="63"/>
       <c r="B79" s="63" t="s">
         <v>213</v>
@@ -15241,7 +15241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B80" s="56" t="s">
         <v>197</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B81" s="56" t="s">
         <v>198</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="56"/>
       <c r="B82" s="56" t="s">
         <v>199</v>
@@ -15492,7 +15492,7 @@
       <c r="AD82" s="56"/>
       <c r="AE82" s="56"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B83" s="56" t="s">
         <v>178</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="56" t="s">
         <v>179</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B85" s="56" t="s">
         <v>188</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B86" s="56" t="s">
         <v>200</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B87" s="56" t="s">
         <v>201</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B88" s="56" t="s">
         <v>189</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="63"/>
       <c r="B89" s="63" t="s">
         <v>202</v>
@@ -15940,7 +15940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B90" s="56" t="s">
         <v>203</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B91" s="56" t="s">
         <v>204</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="63"/>
       <c r="B92" s="63" t="s">
         <v>205</v>
@@ -16190,7 +16190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B93" s="56" t="s">
         <v>206</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B94" s="56" t="s">
         <v>207</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B95" s="56" t="s">
         <v>208</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="63"/>
       <c r="B96" s="63" t="s">
         <v>209</v>
@@ -16432,7 +16432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B97" s="56" t="s">
         <v>210</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B98" s="56" t="s">
         <v>214</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B99" s="56" t="s">
         <v>165</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B100" s="56" t="s">
         <v>232</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B101" s="56" t="s">
         <v>233</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B102" s="56" t="s">
         <v>215</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B103" s="56" t="s">
         <v>216</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B104" s="56" t="s">
         <v>234</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B105" s="56" t="s">
         <v>235</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B106" s="56" t="s">
         <v>236</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B107" s="56" t="s">
         <v>218</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B108" s="56" t="s">
         <v>219</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="63"/>
       <c r="B109" s="63" t="s">
         <v>238</v>
@@ -17096,7 +17096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B110" s="56" t="s">
         <v>239</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="63"/>
       <c r="B111" s="63" t="s">
         <v>240</v>
@@ -17168,7 +17168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B112" s="56" t="s">
         <v>220</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B113" s="56" t="s">
         <v>217</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" s="63"/>
       <c r="B114" s="63" t="s">
         <v>237</v>
@@ -17324,7 +17324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B115" s="56" t="s">
         <v>221</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B116" s="56" t="s">
         <v>222</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B117" s="56" t="s">
         <v>241</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B118" s="56" t="s">
         <v>223</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B119" s="56" t="s">
         <v>224</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B120" s="56" t="s">
         <v>225</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B121" s="56" t="s">
         <v>226</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B122" s="56" t="s">
         <v>227</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B123" s="56" t="s">
         <v>228</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B124" s="56" t="s">
         <v>229</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" s="69"/>
       <c r="B125" s="69" t="s">
         <v>242</v>
@@ -17729,7 +17729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B126" s="56" t="s">
         <v>243</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B127" s="56" t="s">
         <v>244</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B128" s="56" t="s">
         <v>230</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="63"/>
       <c r="B129" s="63" t="s">
         <v>231</v>
@@ -17895,7 +17895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B130" s="56" t="s">
         <v>245</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B131" s="56" t="s">
         <v>691</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B132" s="56" t="s">
         <v>694</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B133" s="56" t="s">
         <v>693</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B134" s="56" t="s">
         <v>692</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" s="63"/>
       <c r="B135" s="63" t="s">
         <v>690</v>
@@ -18209,15 +18209,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>712</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>248</v>
       </c>
@@ -19057,7 +19057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>251</v>
       </c>
@@ -19276,14 +19276,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>253</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>726</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>257</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>258</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>260</v>
       </c>
@@ -20214,7 +20214,7 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>263</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>252</v>
       </c>
@@ -20707,37 +20707,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
     </row>
   </sheetData>
@@ -20751,15 +20751,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -20857,7 +20857,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>56</v>
       </c>
@@ -21745,15 +21745,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>1069</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>272</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>253</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -22346,7 +22346,7 @@
       </c>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>273</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>275</v>
       </c>
@@ -22538,7 +22538,7 @@
       </c>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -22588,7 +22588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>276</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>277</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>252</v>
       </c>
@@ -22760,15 +22760,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>278</v>
       </c>
@@ -23196,7 +23196,7 @@
       </c>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>1071</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>283</v>
       </c>
@@ -23611,14 +23611,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -24282,7 +24282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -24341,7 +24341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>1072</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
         <v>1073</v>
       </c>
@@ -24422,9 +24422,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="82" t="s">
         <v>883</v>
       </c>
@@ -24453,15 +24453,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -25042,7 +25042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>791</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>792</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>793</v>
       </c>
@@ -25302,7 +25302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>794</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>795</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -25405,7 +25405,7 @@
       </c>
       <c r="AA14" s="57"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>297</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>299</v>
       </c>
@@ -25532,7 +25532,7 @@
       </c>
       <c r="AA17" s="57"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>300</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>314</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -25685,7 +25685,7 @@
       </c>
       <c r="AA21" s="57"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>304</v>
       </c>
@@ -25884,7 +25884,7 @@
       </c>
       <c r="AA24" s="57"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>305</v>
       </c>
@@ -25967,7 +25967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>306</v>
       </c>
@@ -26050,7 +26050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>307</v>
       </c>
@@ -26133,7 +26133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>308</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>290</v>
       </c>
@@ -26349,14 +26349,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -26439,7 +26439,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -26474,7 +26474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -26509,7 +26509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1039</v>
       </c>
@@ -26520,7 +26520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1041</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1046</v>
       </c>
@@ -26542,7 +26542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1040</v>
       </c>
@@ -26553,7 +26553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>791</v>
       </c>
@@ -26575,7 +26575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>792</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>793</v>
       </c>
@@ -26597,7 +26597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>794</v>
       </c>
@@ -26643,15 +26643,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -26734,7 +26734,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -27125,7 +27125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -27146,7 +27146,7 @@
       </c>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -27273,7 +27273,7 @@
       </c>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>300</v>
       </c>
@@ -27287,7 +27287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -27364,7 +27364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>305</v>
       </c>
@@ -27447,7 +27447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>310</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>311</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>312</v>
       </c>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>313</v>
       </c>
@@ -27688,7 +27688,7 @@
       </c>
       <c r="AA17" s="57"/>
     </row>
-    <row r="18" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>1076</v>
       </c>
@@ -27723,7 +27723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>314</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>315</v>
       </c>
@@ -27831,7 +27831,7 @@
       <c r="Z20" s="57"/>
       <c r="AA20" s="57"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>316</v>
       </c>
@@ -27914,7 +27914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>317</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>318</v>
       </c>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="AA23" s="57"/>
     </row>
-    <row r="24" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>1077</v>
       </c>
@@ -28089,7 +28089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>319</v>
       </c>
@@ -28183,17 +28183,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
@@ -28233,7 +28233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>371</v>
       </c>
@@ -28273,7 +28273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>370</v>
       </c>
@@ -28293,7 +28293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
@@ -28313,7 +28313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>372</v>
       </c>
@@ -28333,7 +28333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>531</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>373</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>377</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
@@ -28433,7 +28433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>40</v>
       </c>
@@ -28453,7 +28453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>374</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>378</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>375</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>1044</v>
       </c>
@@ -28533,7 +28533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>376</v>
       </c>
@@ -28553,111 +28553,111 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54"/>
       <c r="B23" s="21" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="21" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
     </row>
   </sheetData>
@@ -28686,27 +28686,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="66.5546875" style="68" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="40" customWidth="1"/>
     <col min="6" max="6" width="71" style="28" customWidth="1"/>
     <col min="7" max="7" width="14" style="28" customWidth="1"/>
-    <col min="8" max="24" width="8.7109375" style="40" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="28"/>
+    <col min="8" max="24" width="8.6640625" style="40" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>451</v>
       </c>
@@ -28781,7 +28782,7 @@
       </c>
       <c r="Y1" s="42"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
@@ -28905,7 +28906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -28953,7 +28954,7 @@
       <c r="X4" s="5"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -28990,7 +28991,7 @@
       <c r="X5" s="5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -29027,7 +29028,7 @@
       <c r="X6" s="5"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -29064,7 +29065,7 @@
       <c r="X7" s="5"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -29101,7 +29102,7 @@
       <c r="X8" s="5"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="1:25" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="37" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
@@ -29141,7 +29142,7 @@
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
     </row>
-    <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
         <v>21</v>
       </c>
@@ -29183,7 +29184,7 @@
       <c r="X10" s="5"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>22</v>
@@ -29222,7 +29223,7 @@
       <c r="X11" s="5"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>23</v>
@@ -29259,7 +29260,7 @@
       <c r="X12" s="5"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -29298,7 +29299,7 @@
       <c r="X13" s="5"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -29335,7 +29336,7 @@
       <c r="X14" s="5"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>26</v>
@@ -29372,7 +29373,7 @@
       <c r="X15" s="5"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" t="s">
         <v>27</v>
@@ -29411,7 +29412,7 @@
       <c r="X16" s="5"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17" t="s">
         <v>28</v>
@@ -29450,7 +29451,7 @@
       <c r="X17" s="5"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" s="37" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37" t="s">
         <v>32</v>
       </c>
@@ -29488,7 +29489,7 @@
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
     </row>
-    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>33</v>
       </c>
@@ -29525,7 +29526,7 @@
       <c r="X19" s="5"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28" t="s">
         <v>34</v>
       </c>
@@ -29562,7 +29563,7 @@
       <c r="X20" s="5"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
         <v>51</v>
       </c>
@@ -29602,7 +29603,7 @@
       <c r="X21" s="5"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28" t="s">
         <v>52</v>
       </c>
@@ -29642,7 +29643,7 @@
       <c r="X22" s="5"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="28" t="s">
         <v>53</v>
       </c>
@@ -29679,7 +29680,7 @@
       <c r="X23" s="5"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="28" t="s">
         <v>54</v>
       </c>
@@ -29716,7 +29717,7 @@
       <c r="X24" s="5"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="28" t="s">
         <v>55</v>
       </c>
@@ -29753,7 +29754,7 @@
       <c r="X25" s="5"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28" t="s">
         <v>56</v>
       </c>
@@ -29793,7 +29794,7 @@
       <c r="X26" s="5"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28" t="s">
         <v>57</v>
       </c>
@@ -29830,7 +29831,7 @@
       <c r="X27" s="5"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
         <v>58</v>
       </c>
@@ -29867,7 +29868,7 @@
       <c r="X28" s="5"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
         <v>59</v>
       </c>
@@ -29904,7 +29905,7 @@
       <c r="X29" s="5"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28" t="s">
         <v>60</v>
       </c>
@@ -29944,7 +29945,7 @@
       <c r="X30" s="5"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28" t="s">
         <v>61</v>
       </c>
@@ -29984,7 +29985,7 @@
       <c r="X31" s="5"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
         <v>62</v>
       </c>
@@ -30021,7 +30022,7 @@
       <c r="X32" s="5"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="28" t="s">
         <v>63</v>
       </c>
@@ -30058,7 +30059,7 @@
       <c r="X33" s="5"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="28" t="s">
         <v>64</v>
       </c>
@@ -30098,7 +30099,7 @@
       <c r="X34" s="5"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
         <v>65</v>
       </c>
@@ -30135,7 +30136,7 @@
       <c r="X35" s="5"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="28" t="s">
         <v>66</v>
       </c>
@@ -30172,7 +30173,7 @@
       <c r="X36" s="5"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="28" t="s">
         <v>67</v>
       </c>
@@ -30209,7 +30210,7 @@
       <c r="X37" s="5"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
         <v>70</v>
       </c>
@@ -30246,7 +30247,7 @@
       <c r="X38" s="5"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="28" t="s">
         <v>68</v>
       </c>
@@ -30283,7 +30284,7 @@
       <c r="X39" s="5"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="28" t="s">
         <v>69</v>
       </c>
@@ -30320,7 +30321,7 @@
       <c r="X40" s="5"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="28" t="s">
         <v>340</v>
       </c>
@@ -30357,7 +30358,7 @@
       <c r="X41" s="5"/>
       <c r="Y41"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28" t="s">
         <v>341</v>
       </c>
@@ -30394,7 +30395,7 @@
       <c r="X42" s="5"/>
       <c r="Y42"/>
     </row>
-    <row r="43" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="28" t="s">
         <v>361</v>
       </c>
@@ -30431,7 +30432,7 @@
       <c r="X43" s="5"/>
       <c r="Y43"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="28" t="s">
         <v>363</v>
       </c>
@@ -30468,7 +30469,7 @@
       <c r="X44" s="5"/>
       <c r="Y44"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
         <v>71</v>
       </c>
@@ -30506,7 +30507,7 @@
       <c r="X45" s="5"/>
       <c r="Y45"/>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="28" t="s">
         <v>72</v>
       </c>
@@ -30544,7 +30545,7 @@
       <c r="X46" s="5"/>
       <c r="Y46"/>
     </row>
-    <row r="47" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="28" t="s">
         <v>73</v>
       </c>
@@ -30580,7 +30581,7 @@
       <c r="X47" s="5"/>
       <c r="Y47"/>
     </row>
-    <row r="48" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="28" t="s">
         <v>74</v>
       </c>
@@ -30616,7 +30617,7 @@
       <c r="X48" s="5"/>
       <c r="Y48"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28" t="s">
         <v>75</v>
       </c>
@@ -30652,7 +30653,7 @@
       <c r="X49" s="5"/>
       <c r="Y49"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28" t="s">
         <v>76</v>
       </c>
@@ -30690,7 +30691,7 @@
       <c r="X50" s="5"/>
       <c r="Y50"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="28" t="s">
         <v>77</v>
       </c>
@@ -30728,7 +30729,7 @@
       <c r="X51" s="5"/>
       <c r="Y51"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>452</v>
       </c>
@@ -30767,7 +30768,7 @@
       <c r="X52" s="5"/>
       <c r="Y52"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>452</v>
       </c>
@@ -30806,7 +30807,7 @@
       <c r="X53" s="5"/>
       <c r="Y53"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="28" t="s">
         <v>80</v>
       </c>
@@ -30842,7 +30843,7 @@
       <c r="X54" s="5"/>
       <c r="Y54"/>
     </row>
-    <row r="55" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="28" t="s">
         <v>81</v>
       </c>
@@ -30878,7 +30879,7 @@
       <c r="X55" s="5"/>
       <c r="Y55"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="28" t="s">
         <v>82</v>
       </c>
@@ -30914,7 +30915,7 @@
       <c r="X56" s="5"/>
       <c r="Y56"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="28" t="s">
         <v>83</v>
       </c>
@@ -30952,7 +30953,7 @@
       <c r="X57" s="5"/>
       <c r="Y57"/>
     </row>
-    <row r="58" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
         <v>84</v>
       </c>
@@ -30988,7 +30989,7 @@
       <c r="X58" s="5"/>
       <c r="Y58"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="28" t="s">
         <v>85</v>
       </c>
@@ -31024,7 +31025,7 @@
       <c r="X59" s="5"/>
       <c r="Y59"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="28" t="s">
         <v>86</v>
       </c>
@@ -31060,7 +31061,7 @@
       <c r="X60" s="5"/>
       <c r="Y60"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28" t="s">
         <v>87</v>
       </c>
@@ -31096,7 +31097,7 @@
       <c r="X61" s="5"/>
       <c r="Y61"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="28" t="s">
         <v>88</v>
       </c>
@@ -31132,7 +31133,7 @@
       <c r="X62" s="5"/>
       <c r="Y62"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63" t="s">
         <v>14</v>
@@ -31168,7 +31169,7 @@
       <c r="X63" s="5"/>
       <c r="Y63"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64" t="s">
         <v>13</v>
@@ -31207,7 +31208,7 @@
       <c r="X64" s="5"/>
       <c r="Y64"/>
     </row>
-    <row r="65" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65" t="s">
         <v>16</v>
@@ -31246,7 +31247,7 @@
       <c r="X65" s="5"/>
       <c r="Y65"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -31284,7 +31285,7 @@
       <c r="X66" s="5"/>
       <c r="Y66"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>452</v>
       </c>
@@ -31322,7 +31323,7 @@
       <c r="X67" s="5"/>
       <c r="Y67"/>
     </row>
-    <row r="68" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>91</v>
@@ -31361,7 +31362,7 @@
       <c r="X68" s="5"/>
       <c r="Y68"/>
     </row>
-    <row r="69" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69" s="28" t="s">
         <v>92</v>
@@ -31400,7 +31401,7 @@
       <c r="X69" s="5"/>
       <c r="Y69"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70" s="28" t="s">
         <v>93</v>
@@ -31439,7 +31440,7 @@
       <c r="X70" s="5"/>
       <c r="Y70"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71" s="28" t="s">
         <v>94</v>
@@ -31478,7 +31479,7 @@
       <c r="X71" s="5"/>
       <c r="Y71"/>
     </row>
-    <row r="72" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72" s="28" t="s">
         <v>95</v>
@@ -31517,7 +31518,7 @@
       <c r="X72" s="5"/>
       <c r="Y72"/>
     </row>
-    <row r="73" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73" s="28" t="s">
         <v>96</v>
@@ -31556,7 +31557,7 @@
       <c r="X73" s="5"/>
       <c r="Y73"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74" s="28" t="s">
         <v>97</v>
@@ -31595,7 +31596,7 @@
       <c r="X74" s="5"/>
       <c r="Y74"/>
     </row>
-    <row r="75" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75" s="28" t="s">
         <v>98</v>
@@ -31634,7 +31635,7 @@
       <c r="X75" s="5"/>
       <c r="Y75"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76" s="28" t="s">
         <v>99</v>
@@ -31673,7 +31674,7 @@
       <c r="X76" s="5"/>
       <c r="Y76"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77" s="28" t="s">
         <v>100</v>
@@ -31709,7 +31710,7 @@
       <c r="X77" s="5"/>
       <c r="Y77"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78" s="28" t="s">
         <v>101</v>
@@ -31748,7 +31749,7 @@
       <c r="X78" s="5"/>
       <c r="Y78"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79" s="28" t="s">
         <v>102</v>
@@ -31784,7 +31785,7 @@
       <c r="X79" s="5"/>
       <c r="Y79"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80" s="28" t="s">
         <v>103</v>
@@ -31820,7 +31821,7 @@
       <c r="X80" s="5"/>
       <c r="Y80"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81" s="28" t="s">
         <v>104</v>
@@ -31859,7 +31860,7 @@
       <c r="X81" s="5"/>
       <c r="Y81"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82" s="28" t="s">
         <v>105</v>
@@ -31895,7 +31896,7 @@
       <c r="X82" s="5"/>
       <c r="Y82"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>452</v>
       </c>
@@ -31933,7 +31934,7 @@
       <c r="X83" s="5"/>
       <c r="Y83"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84" s="28" t="s">
         <v>107</v>
@@ -31972,7 +31973,7 @@
       <c r="X84" s="5"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85" s="28" t="s">
         <v>108</v>
@@ -32011,7 +32012,7 @@
       <c r="X85" s="5"/>
       <c r="Y85"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>452</v>
       </c>
@@ -32052,7 +32053,7 @@
       <c r="X86" s="5"/>
       <c r="Y86"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87" s="28" t="s">
         <v>110</v>
@@ -32091,7 +32092,7 @@
       <c r="X87" s="5"/>
       <c r="Y87"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88" s="28" t="s">
         <v>111</v>
@@ -32130,7 +32131,7 @@
       <c r="X88" s="5"/>
       <c r="Y88"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89" s="28" t="s">
         <v>113</v>
@@ -32166,7 +32167,7 @@
       <c r="X89" s="5"/>
       <c r="Y89"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90" s="28" t="s">
         <v>112</v>
@@ -32205,7 +32206,7 @@
       <c r="X90" s="5"/>
       <c r="Y90"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91" s="28" t="s">
         <v>114</v>
@@ -32244,7 +32245,7 @@
       <c r="X91" s="5"/>
       <c r="Y91"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92" s="28" t="s">
         <v>115</v>
@@ -32283,7 +32284,7 @@
       <c r="X92" s="5"/>
       <c r="Y92"/>
     </row>
-    <row r="93" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93" s="28" t="s">
         <v>116</v>
@@ -32319,7 +32320,7 @@
       <c r="X93" s="5"/>
       <c r="Y93"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94" s="28" t="s">
         <v>117</v>
@@ -32358,7 +32359,7 @@
       <c r="X94" s="5"/>
       <c r="Y94"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95" s="28" t="s">
         <v>118</v>
@@ -32397,7 +32398,7 @@
       <c r="X95" s="5"/>
       <c r="Y95"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96" s="28" t="s">
         <v>119</v>
@@ -32436,7 +32437,7 @@
       <c r="X96" s="5"/>
       <c r="Y96"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97" s="28" t="s">
         <v>120</v>
@@ -32475,7 +32476,7 @@
       <c r="X97" s="5"/>
       <c r="Y97"/>
     </row>
-    <row r="98" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98" s="28" t="s">
         <v>121</v>
@@ -32498,7 +32499,7 @@
       </c>
       <c r="Y98"/>
     </row>
-    <row r="99" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99" s="28" t="s">
         <v>122</v>
@@ -32521,7 +32522,7 @@
       </c>
       <c r="Y99"/>
     </row>
-    <row r="100" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100" s="28" t="s">
         <v>507</v>
@@ -32544,7 +32545,7 @@
       </c>
       <c r="Y100"/>
     </row>
-    <row r="101" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101" s="28" t="s">
         <v>123</v>
@@ -32567,7 +32568,7 @@
       </c>
       <c r="Y101"/>
     </row>
-    <row r="102" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102" s="28" t="s">
         <v>124</v>
@@ -32590,7 +32591,7 @@
       </c>
       <c r="Y102"/>
     </row>
-    <row r="103" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103" s="28" t="s">
         <v>473</v>
@@ -32613,7 +32614,7 @@
       </c>
       <c r="Y103"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="28" t="s">
         <v>452</v>
       </c>
@@ -32634,7 +32635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="28" t="s">
         <v>452</v>
       </c>
@@ -32655,7 +32656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="28" t="s">
         <v>141</v>
       </c>
@@ -32673,7 +32674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="28" t="s">
         <v>126</v>
       </c>
@@ -32694,7 +32695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="28" t="s">
         <v>164</v>
       </c>
@@ -32712,7 +32713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="28" t="s">
         <v>142</v>
       </c>
@@ -32733,7 +32734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="28" t="s">
         <v>143</v>
       </c>
@@ -32754,7 +32755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="28" t="s">
         <v>144</v>
       </c>
@@ -32775,7 +32776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="28" t="s">
         <v>145</v>
       </c>
@@ -32793,7 +32794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="28" t="s">
         <v>146</v>
       </c>
@@ -32811,7 +32812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="28" t="s">
         <v>147</v>
       </c>
@@ -32829,7 +32830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="28" t="s">
         <v>148</v>
       </c>
@@ -32847,7 +32848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="28" t="s">
         <v>149</v>
       </c>
@@ -32865,7 +32866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="28" t="s">
         <v>452</v>
       </c>
@@ -32889,7 +32890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
         <v>452</v>
       </c>
@@ -32913,7 +32914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="28" t="s">
         <v>152</v>
       </c>
@@ -32934,7 +32935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="28" t="s">
         <v>153</v>
       </c>
@@ -32955,7 +32956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="28" t="s">
         <v>452</v>
       </c>
@@ -32979,7 +32980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28" t="s">
         <v>452</v>
       </c>
@@ -33003,7 +33004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28" t="s">
         <v>452</v>
       </c>
@@ -33027,7 +33028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="28" t="s">
         <v>157</v>
       </c>
@@ -33048,7 +33049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28" t="s">
         <v>452</v>
       </c>
@@ -33072,7 +33073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="28" t="s">
         <v>159</v>
       </c>
@@ -33093,7 +33094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="28" t="s">
         <v>160</v>
       </c>
@@ -33114,7 +33115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="28" t="s">
         <v>161</v>
       </c>
@@ -33135,7 +33136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="28" t="s">
         <v>127</v>
       </c>
@@ -33156,7 +33157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="28" t="s">
         <v>128</v>
       </c>
@@ -33177,7 +33178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="28" t="s">
         <v>129</v>
       </c>
@@ -33198,7 +33199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="28" t="s">
         <v>130</v>
       </c>
@@ -33219,7 +33220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="28" t="s">
         <v>163</v>
       </c>
@@ -33240,7 +33241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="28" t="s">
         <v>131</v>
       </c>
@@ -33261,7 +33262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="28" t="s">
         <v>132</v>
       </c>
@@ -33282,7 +33283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="28" t="s">
         <v>133</v>
       </c>
@@ -33303,7 +33304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="28" t="s">
         <v>162</v>
       </c>
@@ -33324,7 +33325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="28" t="s">
         <v>134</v>
       </c>
@@ -33345,7 +33346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="28" t="s">
         <v>135</v>
       </c>
@@ -33366,7 +33367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="28" t="s">
         <v>136</v>
       </c>
@@ -33387,7 +33388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="28" t="s">
         <v>137</v>
       </c>
@@ -33408,7 +33409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="28" t="s">
         <v>138</v>
       </c>
@@ -33429,7 +33430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
         <v>125</v>
       </c>
@@ -33450,7 +33451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="28" t="s">
         <v>166</v>
       </c>
@@ -33468,7 +33469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28" t="s">
         <v>452</v>
       </c>
@@ -33489,7 +33490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28" t="s">
         <v>452</v>
       </c>
@@ -33510,7 +33511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="28" t="s">
         <v>170</v>
       </c>
@@ -33528,7 +33529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="28" t="s">
         <v>171</v>
       </c>
@@ -33546,7 +33547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="28" t="s">
         <v>180</v>
       </c>
@@ -33564,7 +33565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
         <v>452</v>
       </c>
@@ -33585,7 +33586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="28" t="s">
         <v>191</v>
       </c>
@@ -33603,7 +33604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="28" t="s">
         <v>172</v>
       </c>
@@ -33621,7 +33622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="28" t="s">
         <v>173</v>
       </c>
@@ -33639,7 +33640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28" t="s">
         <v>452</v>
       </c>
@@ -33660,7 +33661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="28" t="s">
         <v>192</v>
       </c>
@@ -33678,7 +33679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="28" t="s">
         <v>193</v>
       </c>
@@ -33696,7 +33697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="28" t="s">
         <v>174</v>
       </c>
@@ -33714,7 +33715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="28" t="s">
         <v>181</v>
       </c>
@@ -33732,7 +33733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="28" t="s">
         <v>211</v>
       </c>
@@ -33750,7 +33751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="28" t="s">
         <v>194</v>
       </c>
@@ -33768,7 +33769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="28" t="s">
         <v>195</v>
       </c>
@@ -33786,7 +33787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" s="51" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="49"/>
       <c r="B162" s="52" t="s">
         <v>196</v>
@@ -33823,7 +33824,7 @@
       <c r="X162" s="50"/>
       <c r="Y162" s="49"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="28" t="s">
         <v>175</v>
       </c>
@@ -33841,7 +33842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="28" t="s">
         <v>182</v>
       </c>
@@ -33859,7 +33860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="28" t="s">
         <v>183</v>
       </c>
@@ -33877,7 +33878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="28" t="s">
         <v>184</v>
       </c>
@@ -33895,7 +33896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="28" t="s">
         <v>185</v>
       </c>
@@ -33913,7 +33914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="28" t="s">
         <v>186</v>
       </c>
@@ -33931,7 +33932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28" t="s">
         <v>187</v>
       </c>
@@ -33949,7 +33950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="28" t="s">
         <v>212</v>
       </c>
@@ -33967,7 +33968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="28" t="s">
         <v>176</v>
       </c>
@@ -33985,7 +33986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="28" t="s">
         <v>177</v>
       </c>
@@ -34003,7 +34004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="28" t="s">
         <v>213</v>
       </c>
@@ -34021,7 +34022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="28" t="s">
         <v>197</v>
       </c>
@@ -34042,7 +34043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="28" t="s">
         <v>198</v>
       </c>
@@ -34060,7 +34061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="28" t="s">
         <v>199</v>
       </c>
@@ -34078,7 +34079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="28" t="s">
         <v>178</v>
       </c>
@@ -34096,7 +34097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="28" t="s">
         <v>179</v>
       </c>
@@ -34114,7 +34115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="28" t="s">
         <v>188</v>
       </c>
@@ -34132,7 +34133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="28" t="s">
         <v>200</v>
       </c>
@@ -34150,7 +34151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="28" t="s">
         <v>201</v>
       </c>
@@ -34168,7 +34169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="28" t="s">
         <v>189</v>
       </c>
@@ -34186,7 +34187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="28" t="s">
         <v>202</v>
       </c>
@@ -34204,7 +34205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="28" t="s">
         <v>203</v>
       </c>
@@ -34222,7 +34223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="28" t="s">
         <v>204</v>
       </c>
@@ -34240,7 +34241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="28" t="s">
         <v>205</v>
       </c>
@@ -34258,7 +34259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="28" t="s">
         <v>206</v>
       </c>
@@ -34276,7 +34277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="28" t="s">
         <v>207</v>
       </c>
@@ -34294,7 +34295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="28" t="s">
         <v>208</v>
       </c>
@@ -34312,7 +34313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="28" t="s">
         <v>209</v>
       </c>
@@ -34330,7 +34331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="28" t="s">
         <v>210</v>
       </c>
@@ -34348,7 +34349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="28" t="s">
         <v>214</v>
       </c>
@@ -34366,7 +34367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="28" t="s">
         <v>165</v>
       </c>
@@ -34384,7 +34385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="28" t="s">
         <v>232</v>
       </c>
@@ -34402,7 +34403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="28" t="s">
         <v>233</v>
       </c>
@@ -34420,7 +34421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="28" t="s">
         <v>215</v>
       </c>
@@ -34438,7 +34439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="28" t="s">
         <v>216</v>
       </c>
@@ -34456,7 +34457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="28" t="s">
         <v>234</v>
       </c>
@@ -34474,7 +34475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="28" t="s">
         <v>235</v>
       </c>
@@ -34492,7 +34493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="28" t="s">
         <v>236</v>
       </c>
@@ -34510,7 +34511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="28" t="s">
         <v>218</v>
       </c>
@@ -34528,7 +34529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="28" t="s">
         <v>219</v>
       </c>
@@ -34546,7 +34547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="28" t="s">
         <v>238</v>
       </c>
@@ -34564,7 +34565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="28" t="s">
         <v>239</v>
       </c>
@@ -34582,7 +34583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="28" t="s">
         <v>240</v>
       </c>
@@ -34600,7 +34601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="28" t="s">
         <v>220</v>
       </c>
@@ -34618,7 +34619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="28" t="s">
         <v>217</v>
       </c>
@@ -34636,7 +34637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="28" t="s">
         <v>237</v>
       </c>
@@ -34654,7 +34655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="209" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="28" t="s">
         <v>221</v>
       </c>
@@ -34672,7 +34673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="28" t="s">
         <v>222</v>
       </c>
@@ -34690,7 +34691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="28" t="s">
         <v>241</v>
       </c>
@@ -34708,7 +34709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="28" t="s">
         <v>223</v>
       </c>
@@ -34726,7 +34727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="28" t="s">
         <v>224</v>
       </c>
@@ -34744,7 +34745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="28" t="s">
         <v>225</v>
       </c>
@@ -34765,7 +34766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="28" t="s">
         <v>226</v>
       </c>
@@ -34786,7 +34787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="28" t="s">
         <v>227</v>
       </c>
@@ -34807,7 +34808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="28" t="s">
         <v>228</v>
       </c>
@@ -34828,7 +34829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="28" t="s">
         <v>229</v>
       </c>
@@ -34849,7 +34850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="28" t="s">
         <v>242</v>
       </c>
@@ -34867,7 +34868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="28" t="s">
         <v>243</v>
       </c>
@@ -34885,7 +34886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="28" t="s">
         <v>244</v>
       </c>
@@ -34903,7 +34904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="28" t="s">
         <v>230</v>
       </c>
@@ -34924,7 +34925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="28" t="s">
         <v>231</v>
       </c>
@@ -34945,7 +34946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="28" t="s">
         <v>245</v>
       </c>
@@ -34966,7 +34967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225" s="28" t="s">
         <v>691</v>
@@ -34989,7 +34990,7 @@
       </c>
       <c r="Y225"/>
     </row>
-    <row r="226" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226"/>
       <c r="B226" s="28" t="s">
         <v>694</v>
@@ -35028,7 +35029,7 @@
       <c r="X226" s="5"/>
       <c r="Y226"/>
     </row>
-    <row r="227" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227"/>
       <c r="B227" s="28" t="s">
         <v>693</v>
@@ -35067,7 +35068,7 @@
       <c r="X227" s="5"/>
       <c r="Y227"/>
     </row>
-    <row r="228" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="28" t="s">
         <v>692</v>
       </c>
@@ -35105,7 +35106,7 @@
       <c r="X228" s="5"/>
       <c r="Y228"/>
     </row>
-    <row r="229" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229"/>
       <c r="B229" s="28" t="s">
         <v>690</v>
@@ -35144,7 +35145,7 @@
       <c r="X229" s="5"/>
       <c r="Y229"/>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230"/>
       <c r="B230" t="s">
         <v>270</v>
@@ -35181,7 +35182,7 @@
       <c r="X230" s="5"/>
       <c r="Y230"/>
     </row>
-    <row r="231" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231"/>
       <c r="B231" t="s">
         <v>9</v>
@@ -35224,7 +35225,7 @@
       <c r="X231" s="5"/>
       <c r="Y231"/>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232"/>
       <c r="B232" t="s">
         <v>44</v>
@@ -35263,7 +35264,7 @@
       <c r="X232" s="5"/>
       <c r="Y232"/>
     </row>
-    <row r="233" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233"/>
       <c r="B233" t="s">
         <v>39</v>
@@ -35306,7 +35307,7 @@
       <c r="X233" s="5"/>
       <c r="Y233"/>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234"/>
       <c r="B234" t="s">
         <v>41</v>
@@ -35345,7 +35346,7 @@
       <c r="X234" s="5"/>
       <c r="Y234"/>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235"/>
       <c r="B235" t="s">
         <v>712</v>
@@ -35384,7 +35385,7 @@
       <c r="X235" s="5"/>
       <c r="Y235"/>
     </row>
-    <row r="236" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236"/>
       <c r="B236" t="s">
         <v>45</v>
@@ -35425,7 +35426,7 @@
       <c r="X236" s="5"/>
       <c r="Y236"/>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237"/>
       <c r="B237" t="s">
         <v>271</v>
@@ -35462,7 +35463,7 @@
       <c r="X237" s="5"/>
       <c r="Y237"/>
     </row>
-    <row r="238" spans="1:25" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" s="28" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="28" t="s">
         <v>46</v>
       </c>
@@ -35499,7 +35500,7 @@
       <c r="W238" s="40"/>
       <c r="X238" s="40"/>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239"/>
       <c r="B239" t="s">
         <v>272</v>
@@ -35536,7 +35537,7 @@
       <c r="X239" s="5"/>
       <c r="Y239"/>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240"/>
       <c r="B240" t="s">
         <v>47</v>
@@ -35575,7 +35576,7 @@
       <c r="X240" s="5"/>
       <c r="Y240"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>248</v>
       </c>
@@ -35608,7 +35609,7 @@
       <c r="W241" s="5"/>
       <c r="X241" s="5"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>246</v>
       </c>
@@ -35644,7 +35645,7 @@
       <c r="W242" s="5"/>
       <c r="X242" s="5"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>247</v>
       </c>
@@ -35680,7 +35681,7 @@
       <c r="W243" s="5"/>
       <c r="X243" s="5"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>249</v>
       </c>
@@ -35713,7 +35714,7 @@
       <c r="W244" s="5"/>
       <c r="X244" s="5"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>250</v>
       </c>
@@ -35746,7 +35747,7 @@
       <c r="W245" s="5"/>
       <c r="X245" s="5"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>251</v>
       </c>
@@ -35782,7 +35783,7 @@
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>253</v>
       </c>
@@ -35819,7 +35820,7 @@
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>254</v>
       </c>
@@ -35855,7 +35856,7 @@
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>726</v>
       </c>
@@ -35891,7 +35892,7 @@
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>257</v>
       </c>
@@ -35927,7 +35928,7 @@
       <c r="W250" s="5"/>
       <c r="X250" s="5"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>258</v>
       </c>
@@ -35963,7 +35964,7 @@
       <c r="W251" s="5"/>
       <c r="X251" s="5"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>259</v>
       </c>
@@ -35998,7 +35999,7 @@
       <c r="W252" s="5"/>
       <c r="X252" s="5"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>260</v>
       </c>
@@ -36033,7 +36034,7 @@
       <c r="W253" s="5"/>
       <c r="X253" s="5"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>261</v>
       </c>
@@ -36068,7 +36069,7 @@
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>262</v>
       </c>
@@ -36103,7 +36104,7 @@
       <c r="W255" s="5"/>
       <c r="X255" s="5"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>255</v>
       </c>
@@ -36138,7 +36139,7 @@
       <c r="W256" s="5"/>
       <c r="X256" s="5"/>
     </row>
-    <row r="257" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>256</v>
       </c>
@@ -36173,7 +36174,7 @@
       <c r="W257" s="5"/>
       <c r="X257" s="5"/>
     </row>
-    <row r="258" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>265</v>
       </c>
@@ -36208,7 +36209,7 @@
       <c r="W258" s="5"/>
       <c r="X258" s="5"/>
     </row>
-    <row r="259" spans="2:24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>263</v>
       </c>
@@ -36243,7 +36244,7 @@
       <c r="W259" s="5"/>
       <c r="X259" s="5"/>
     </row>
-    <row r="260" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>264</v>
       </c>
@@ -36278,7 +36279,7 @@
       <c r="W260" s="5"/>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>252</v>
       </c>
@@ -36313,7 +36314,7 @@
       <c r="W261" s="5"/>
       <c r="X261" s="5"/>
     </row>
-    <row r="262" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>266</v>
       </c>
@@ -36346,7 +36347,7 @@
       <c r="W262" s="5"/>
       <c r="X262" s="5"/>
     </row>
-    <row r="263" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>267</v>
       </c>
@@ -36379,7 +36380,7 @@
       <c r="W263" s="5"/>
       <c r="X263" s="5"/>
     </row>
-    <row r="264" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>268</v>
       </c>
@@ -36412,7 +36413,7 @@
       <c r="W264" s="5"/>
       <c r="X264" s="5"/>
     </row>
-    <row r="265" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>269</v>
       </c>
@@ -36445,7 +36446,7 @@
       <c r="W265" s="5"/>
       <c r="X265" s="5"/>
     </row>
-    <row r="266" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>278</v>
       </c>
@@ -36479,7 +36480,7 @@
       <c r="W266" s="5"/>
       <c r="X266" s="5"/>
     </row>
-    <row r="267" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>279</v>
       </c>
@@ -36509,7 +36510,7 @@
       <c r="W267" s="5"/>
       <c r="X267" s="5"/>
     </row>
-    <row r="268" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>280</v>
       </c>
@@ -36539,7 +36540,7 @@
       <c r="W268" s="5"/>
       <c r="X268" s="5"/>
     </row>
-    <row r="269" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>281</v>
       </c>
@@ -36569,7 +36570,7 @@
       <c r="W269" s="5"/>
       <c r="X269" s="5"/>
     </row>
-    <row r="270" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>282</v>
       </c>
@@ -36599,7 +36600,7 @@
       <c r="W270" s="5"/>
       <c r="X270" s="5"/>
     </row>
-    <row r="271" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>283</v>
       </c>
@@ -36629,7 +36630,7 @@
       <c r="W271" s="5"/>
       <c r="X271" s="5"/>
     </row>
-    <row r="272" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>284</v>
       </c>
@@ -36662,7 +36663,7 @@
       <c r="W272" s="5"/>
       <c r="X272" s="5"/>
     </row>
-    <row r="273" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>285</v>
       </c>
@@ -36695,7 +36696,7 @@
       <c r="W273" s="5"/>
       <c r="X273" s="5"/>
     </row>
-    <row r="274" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>286</v>
       </c>
@@ -36728,7 +36729,7 @@
       <c r="W274" s="5"/>
       <c r="X274" s="5"/>
     </row>
-    <row r="275" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>287</v>
       </c>
@@ -36761,7 +36762,7 @@
       <c r="W275" s="5"/>
       <c r="X275" s="5"/>
     </row>
-    <row r="276" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>288</v>
       </c>
@@ -36794,7 +36795,7 @@
       <c r="W276" s="5"/>
       <c r="X276" s="5"/>
     </row>
-    <row r="277" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>289</v>
       </c>
@@ -36827,7 +36828,7 @@
       <c r="W277" s="5"/>
       <c r="X277" s="5"/>
     </row>
-    <row r="278" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>291</v>
       </c>
@@ -36865,7 +36866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>292</v>
       </c>
@@ -36901,7 +36902,7 @@
       <c r="W279" s="5"/>
       <c r="X279" s="5"/>
     </row>
-    <row r="280" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>293</v>
       </c>
@@ -36939,7 +36940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>294</v>
       </c>
@@ -36975,7 +36976,7 @@
       <c r="W281" s="5"/>
       <c r="X281" s="5"/>
     </row>
-    <row r="282" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>295</v>
       </c>
@@ -37008,7 +37009,7 @@
       <c r="W282" s="5"/>
       <c r="X282" s="5"/>
     </row>
-    <row r="283" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>791</v>
       </c>
@@ -37041,7 +37042,7 @@
       <c r="W283" s="5"/>
       <c r="X283" s="5"/>
     </row>
-    <row r="284" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>792</v>
       </c>
@@ -37074,7 +37075,7 @@
       <c r="W284" s="5"/>
       <c r="X284" s="5"/>
     </row>
-    <row r="285" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>793</v>
       </c>
@@ -37107,7 +37108,7 @@
       <c r="W285" s="5"/>
       <c r="X285" s="5"/>
     </row>
-    <row r="286" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>794</v>
       </c>
@@ -37140,7 +37141,7 @@
       <c r="W286" s="5"/>
       <c r="X286" s="5"/>
     </row>
-    <row r="287" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>795</v>
       </c>
@@ -37173,7 +37174,7 @@
       <c r="W287" s="5"/>
       <c r="X287" s="5"/>
     </row>
-    <row r="288" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>296</v>
       </c>
@@ -37211,7 +37212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>297</v>
       </c>
@@ -37249,7 +37250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>298</v>
       </c>
@@ -37287,7 +37288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>299</v>
       </c>
@@ -37325,7 +37326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>300</v>
       </c>
@@ -37363,7 +37364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>301</v>
       </c>
@@ -37398,7 +37399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>314</v>
       </c>
@@ -37436,7 +37437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>315</v>
       </c>
@@ -37471,7 +37472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>302</v>
       </c>
@@ -37506,7 +37507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>303</v>
       </c>
@@ -37542,7 +37543,7 @@
       <c r="W297" s="5"/>
       <c r="X297" s="5"/>
     </row>
-    <row r="298" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>304</v>
       </c>
@@ -37578,7 +37579,7 @@
       <c r="W298" s="5"/>
       <c r="X298" s="5"/>
     </row>
-    <row r="299" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>305</v>
       </c>
@@ -37613,7 +37614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>306</v>
       </c>
@@ -37646,7 +37647,7 @@
       <c r="W300" s="5"/>
       <c r="X300" s="5"/>
     </row>
-    <row r="301" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>307</v>
       </c>
@@ -37679,7 +37680,7 @@
       <c r="W301" s="5"/>
       <c r="X301" s="5"/>
     </row>
-    <row r="302" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>308</v>
       </c>
@@ -37715,7 +37716,7 @@
       <c r="W302" s="5"/>
       <c r="X302" s="5"/>
     </row>
-    <row r="303" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>309</v>
       </c>
@@ -37751,7 +37752,7 @@
       <c r="W303" s="5"/>
       <c r="X303" s="5"/>
     </row>
-    <row r="304" spans="2:24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>290</v>
       </c>
@@ -37784,7 +37785,7 @@
       <c r="W304" s="5"/>
       <c r="X304" s="5"/>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305"/>
       <c r="B305" t="s">
         <v>310</v>
@@ -37821,7 +37822,7 @@
       </c>
       <c r="Y305"/>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306"/>
       <c r="B306" t="s">
         <v>311</v>
@@ -37858,7 +37859,7 @@
       </c>
       <c r="Y306"/>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307"/>
       <c r="B307" t="s">
         <v>312</v>
@@ -37897,7 +37898,7 @@
       </c>
       <c r="Y307"/>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308"/>
       <c r="B308" t="s">
         <v>313</v>
@@ -37936,7 +37937,7 @@
       </c>
       <c r="Y308"/>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309"/>
       <c r="B309" t="s">
         <v>316</v>
@@ -37973,7 +37974,7 @@
       </c>
       <c r="Y309"/>
     </row>
-    <row r="310" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="56" t="s">
         <v>317</v>
       </c>
@@ -38009,7 +38010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="311" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="56" t="s">
         <v>318</v>
       </c>
@@ -38045,7 +38046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="312" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="56" t="s">
         <v>319</v>
       </c>
@@ -38081,7 +38082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="52"/>
       <c r="B313" s="56" t="s">
         <v>1039</v>
@@ -38118,7 +38119,7 @@
       <c r="X313" s="59"/>
       <c r="Y313" s="52"/>
     </row>
-    <row r="314" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="52"/>
       <c r="B314" s="52" t="s">
         <v>1041</v>
@@ -38155,7 +38156,7 @@
       <c r="X314" s="59"/>
       <c r="Y314" s="52"/>
     </row>
-    <row r="315" spans="1:25" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" s="56" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="52"/>
       <c r="B315" s="56" t="s">
         <v>1046</v>
@@ -38192,7 +38193,7 @@
       <c r="X315" s="59"/>
       <c r="Y315" s="52"/>
     </row>
-    <row r="316" spans="1:25" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" s="56" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="52"/>
       <c r="B316" s="56" t="s">
         <v>1040</v>
@@ -38229,7 +38230,7 @@
       <c r="X316" s="59"/>
       <c r="Y316" s="52"/>
     </row>
-    <row r="317" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="52"/>
       <c r="B317" s="56" t="s">
         <v>1076</v>
@@ -38268,7 +38269,7 @@
       </c>
       <c r="Y317" s="52"/>
     </row>
-    <row r="318" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="52"/>
       <c r="B318" s="56" t="s">
         <v>1077</v>
@@ -38307,7 +38308,7 @@
       </c>
       <c r="Y318" s="52"/>
     </row>
-    <row r="319" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="52"/>
       <c r="B319" s="56" t="s">
         <v>1072</v>
@@ -38344,7 +38345,7 @@
       <c r="X319" s="59"/>
       <c r="Y319" s="52"/>
     </row>
-    <row r="320" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="52"/>
       <c r="B320" s="56" t="s">
         <v>1073</v>
@@ -38381,7 +38382,7 @@
       <c r="X320" s="59"/>
       <c r="Y320" s="52"/>
     </row>
-    <row r="321" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="52"/>
       <c r="B321" s="56" t="s">
         <v>1071</v>
@@ -38420,7 +38421,7 @@
       <c r="X321" s="59"/>
       <c r="Y321" s="52"/>
     </row>
-    <row r="322" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="52"/>
       <c r="B322" s="56" t="s">
         <v>1069</v>
@@ -38459,7 +38460,7 @@
       <c r="X322" s="59"/>
       <c r="Y322" s="52"/>
     </row>
-    <row r="323" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="52"/>
       <c r="B323" s="56" t="s">
         <v>56</v>
@@ -38496,7 +38497,7 @@
       <c r="X323" s="59"/>
       <c r="Y323" s="52"/>
     </row>
-    <row r="324" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="52"/>
       <c r="B324" s="56" t="s">
         <v>1064</v>
@@ -38533,7 +38534,7 @@
       <c r="X324" s="59"/>
       <c r="Y324" s="52"/>
     </row>
-    <row r="325" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="52"/>
       <c r="B325" s="56" t="s">
         <v>1066</v>
@@ -38570,7 +38571,7 @@
       <c r="X325" s="59"/>
       <c r="Y325" s="52"/>
     </row>
-    <row r="326" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="52"/>
       <c r="B326" s="56" t="s">
         <v>1068</v>
@@ -38607,7 +38608,7 @@
       <c r="X326" s="59"/>
       <c r="Y326" s="52"/>
     </row>
-    <row r="327" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="52"/>
       <c r="B327" s="56" t="s">
         <v>1061</v>
@@ -38644,7 +38645,7 @@
       <c r="X327" s="59"/>
       <c r="Y327" s="52"/>
     </row>
-    <row r="328" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="52"/>
       <c r="B328" s="56" t="s">
         <v>1057</v>
@@ -38681,7 +38682,7 @@
       <c r="X328" s="59"/>
       <c r="Y328" s="52"/>
     </row>
-    <row r="329" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="52"/>
       <c r="B329" s="56" t="s">
         <v>1060</v>
@@ -38718,7 +38719,7 @@
       <c r="X329" s="59"/>
       <c r="Y329" s="52"/>
     </row>
-    <row r="330" spans="1:25" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" s="56" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A330" s="52"/>
       <c r="B330" s="56" t="s">
         <v>1054</v>
@@ -38757,7 +38758,7 @@
       <c r="X330" s="59"/>
       <c r="Y330" s="52"/>
     </row>
-    <row r="331" spans="1:25" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" s="56" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="52"/>
       <c r="B331" s="56" t="s">
         <v>1055</v>
@@ -38797,7 +38798,17 @@
       <c r="Y331" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="QUALP10"/>
+        <filter val="QUALP10N"/>
+        <filter val="QUALP3"/>
+        <filter val="QUALP7"/>
+        <filter val="QUALP7N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -38809,12 +38820,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>428</v>
       </c>
@@ -38828,7 +38839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>447</v>
       </c>
@@ -38842,7 +38853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>446</v>
       </c>
@@ -38856,7 +38867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>445</v>
       </c>
@@ -38870,7 +38881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>444</v>
       </c>
@@ -38884,7 +38895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>443</v>
       </c>
@@ -38898,7 +38909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>429</v>
       </c>
@@ -38912,7 +38923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>430</v>
       </c>
@@ -38926,7 +38937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>431</v>
       </c>
@@ -38940,7 +38951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>432</v>
       </c>
@@ -38954,7 +38965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>433</v>
       </c>
@@ -38968,7 +38979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -38982,7 +38993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>435</v>
       </c>
@@ -38996,7 +39007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>587</v>
       </c>
@@ -39010,7 +39021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>436</v>
       </c>
@@ -39024,7 +39035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -39038,7 +39049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>438</v>
       </c>
@@ -39052,7 +39063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>439</v>
       </c>
@@ -39066,7 +39077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>442</v>
       </c>
@@ -39080,7 +39091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>441</v>
       </c>
@@ -39094,7 +39105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>440</v>
       </c>
@@ -39123,14 +39134,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -39228,7 +39239,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -39311,7 +39322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -39394,7 +39405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -39477,7 +39488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -39577,13 +39588,13 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -39681,7 +39692,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -39764,7 +39775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -39847,7 +39858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -39930,7 +39941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -39973,15 +39984,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
     <col min="4" max="26" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -40079,7 +40090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -40162,7 +40173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -40245,7 +40256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -40328,7 +40339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -40411,7 +40422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -40467,7 +40478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
@@ -40550,7 +40561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>33</v>
       </c>
@@ -40624,7 +40635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
@@ -40701,7 +40712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>51</v>
       </c>
@@ -40784,7 +40795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
@@ -40867,7 +40878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>53</v>
       </c>
@@ -40950,7 +40961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
@@ -41033,7 +41044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
@@ -41116,7 +41127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
@@ -41199,7 +41210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
@@ -41253,7 +41264,7 @@
       </c>
       <c r="AA16" s="56"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>58</v>
       </c>
@@ -41286,7 +41297,7 @@
       </c>
       <c r="AA17" s="56"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>59</v>
       </c>
@@ -41367,7 +41378,7 @@
       </c>
       <c r="AA18" s="63"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>60</v>
       </c>
@@ -41432,7 +41443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>61</v>
       </c>
@@ -41515,7 +41526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>62</v>
       </c>
@@ -41598,7 +41609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>63</v>
       </c>
@@ -41681,7 +41692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>64</v>
       </c>
@@ -41737,7 +41748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>65</v>
       </c>
@@ -41793,7 +41804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>66</v>
       </c>
@@ -41849,7 +41860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>67</v>
       </c>
@@ -41905,7 +41916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>70</v>
       </c>
@@ -41969,7 +41980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>337</v>
       </c>
@@ -42000,7 +42011,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="64"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>340</v>
       </c>
@@ -42056,7 +42067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>341</v>
       </c>
@@ -42112,7 +42123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>342</v>
       </c>
@@ -42168,7 +42179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>338</v>
       </c>
@@ -42248,14 +42259,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" customWidth="1"/>
     <col min="4" max="27" width="5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
@@ -42353,7 +42364,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -42436,7 +42447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -42519,7 +42530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -42602,7 +42613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -42658,7 +42669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
@@ -42741,7 +42752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
@@ -42815,7 +42826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
@@ -42892,7 +42903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>51</v>
       </c>
@@ -42975,7 +42986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>52</v>
       </c>
@@ -43058,7 +43069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>53</v>
       </c>
@@ -43141,7 +43152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>54</v>
       </c>
@@ -43224,7 +43235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>55</v>
       </c>
@@ -43307,7 +43318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
@@ -43390,7 +43401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
@@ -43444,7 +43455,7 @@
       </c>
       <c r="AA15" s="57"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
@@ -43477,7 +43488,7 @@
       </c>
       <c r="AA16" s="57"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
@@ -43558,7 +43569,7 @@
       </c>
       <c r="AA17" s="60"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
@@ -43614,7 +43625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>61</v>
       </c>
@@ -43697,7 +43708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -43780,7 +43791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>63</v>
       </c>
@@ -43863,7 +43874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>64</v>
       </c>
@@ -43919,7 +43930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>65</v>
       </c>
@@ -43975,7 +43986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
@@ -44031,7 +44042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>67</v>
       </c>
@@ -44087,7 +44098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>70</v>
       </c>
@@ -44151,7 +44162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>337</v>
       </c>
@@ -44174,7 +44185,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="64"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -44239,7 +44250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>339</v>
       </c>
@@ -44295,7 +44306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>340</v>
       </c>
@@ -44351,7 +44362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>341</v>
       </c>
@@ -44407,7 +44418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>342</v>
       </c>
@@ -44463,7 +44474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>338</v>
       </c>
@@ -44534,6 +44545,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009751835CD414CC46B42FC830D124F282" ma:contentTypeVersion="3" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="734608599edb9e534b5c1f5aed05870b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0ca655e-bd60-4883-8c29-d6111a25fe13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b929488029f66b1850ce1557473a41e" ns2:_="">
     <xsd:import namespace="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
@@ -44681,12 +44698,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -44697,6 +44708,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43AA01A-6291-4146-A29D-1ECC48A0ABAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44714,22 +44741,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EB524F-E0B3-40C0-AF3E-75CDFAF009E6}">
   <ds:schemaRefs>

--- a/documentazione_storico_versione11.1.xlsx
+++ b/documentazione_storico_versione11.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED97DDD-53A3-4355-978E-2F98DEC60EBA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76EA2F4-D1E7-4169-8D65-B81BE63D5B31}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28689,9 +28689,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31323,7 +31323,7 @@
       <c r="X67" s="5"/>
       <c r="Y67"/>
     </row>
-    <row r="68" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>91</v>
@@ -31362,7 +31362,7 @@
       <c r="X68" s="5"/>
       <c r="Y68"/>
     </row>
-    <row r="69" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69" s="28" t="s">
         <v>92</v>
@@ -31973,7 +31973,7 @@
       <c r="X84" s="5"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85" s="28" t="s">
         <v>108</v>
@@ -32476,7 +32476,7 @@
       <c r="X97" s="5"/>
       <c r="Y97"/>
     </row>
-    <row r="98" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98" s="28" t="s">
         <v>121</v>
@@ -32499,7 +32499,7 @@
       </c>
       <c r="Y98"/>
     </row>
-    <row r="99" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99" s="28" t="s">
         <v>122</v>
@@ -32522,7 +32522,7 @@
       </c>
       <c r="Y99"/>
     </row>
-    <row r="100" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100" s="28" t="s">
         <v>507</v>
@@ -32545,7 +32545,7 @@
       </c>
       <c r="Y100"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101" s="28" t="s">
         <v>123</v>
@@ -38719,7 +38719,7 @@
       <c r="X329" s="59"/>
       <c r="Y329" s="52"/>
     </row>
-    <row r="330" spans="1:25" s="56" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" s="56" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="52"/>
       <c r="B330" s="56" t="s">
         <v>1054</v>
@@ -38801,11 +38801,9 @@
   <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="QUALP10"/>
-        <filter val="QUALP10N"/>
-        <filter val="QUALP3"/>
-        <filter val="QUALP7"/>
-        <filter val="QUALP7N"/>
+        <filter val="AREA3"/>
+        <filter val="AREA5"/>
+        <filter val="NASCAREA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -44545,12 +44543,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009751835CD414CC46B42FC830D124F282" ma:contentTypeVersion="3" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="734608599edb9e534b5c1f5aed05870b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0ca655e-bd60-4883-8c29-d6111a25fe13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b929488029f66b1850ce1557473a41e" ns2:_="">
     <xsd:import namespace="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
@@ -44698,6 +44690,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -44708,22 +44706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43AA01A-6291-4146-A29D-1ECC48A0ABAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44741,6 +44723,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EB524F-E0B3-40C0-AF3E-75CDFAF009E6}">
   <ds:schemaRefs>

--- a/documentazione_storico_versione11.1.xlsx
+++ b/documentazione_storico_versione11.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76EA2F4-D1E7-4169-8D65-B81BE63D5B31}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{D5E025A3-0631-4FB0-B252-4F62B7C83719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FAEDF6B-C0DF-40D1-B11E-FA57DCCB1A5D}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" tabRatio="920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28689,9 +28689,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31208,7 +31208,7 @@
       <c r="X64" s="5"/>
       <c r="Y64"/>
     </row>
-    <row r="65" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65" t="s">
         <v>16</v>
@@ -31323,7 +31323,7 @@
       <c r="X67" s="5"/>
       <c r="Y67"/>
     </row>
-    <row r="68" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68" t="s">
         <v>91</v>
@@ -31362,7 +31362,7 @@
       <c r="X68" s="5"/>
       <c r="Y68"/>
     </row>
-    <row r="69" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69" s="28" t="s">
         <v>92</v>
@@ -31973,7 +31973,7 @@
       <c r="X84" s="5"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85" s="28" t="s">
         <v>108</v>
@@ -38801,9 +38801,7 @@
   <autoFilter ref="A1:X331" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AREA3"/>
-        <filter val="AREA5"/>
-        <filter val="NASCAREA"/>
+        <filter val="IREG"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -44543,6 +44541,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009751835CD414CC46B42FC830D124F282" ma:contentTypeVersion="3" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="734608599edb9e534b5c1f5aed05870b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0ca655e-bd60-4883-8c29-d6111a25fe13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b929488029f66b1850ce1557473a41e" ns2:_="">
     <xsd:import namespace="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
@@ -44690,12 +44694,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -44706,6 +44704,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43AA01A-6291-4146-A29D-1ECC48A0ABAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44723,22 +44737,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51DDAD-6AFF-4837-8984-9F439B39B231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0ca655e-bd60-4883-8c29-d6111a25fe13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EB524F-E0B3-40C0-AF3E-75CDFAF009E6}">
   <ds:schemaRefs>
